--- a/models/NarxModelSearch/benchmarksIslandsVsRS.xlsx
+++ b/models/NarxModelSearch/benchmarksIslandsVsRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madks\Documents\GitHub\Ozone-Narx-DNN\models\NarxModelSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E59600E-AB2B-4864-80B7-6FEEDDF60190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA97ECD1-47D4-4562-9FA5-1FE1E80B8B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18720" activeTab="3" xr2:uid="{61FBCCFF-D26E-44A9-A7DF-005C2E7C4778}"/>
   </bookViews>
@@ -5995,7 +5995,7 @@
   <dimension ref="E1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/models/NarxModelSearch/benchmarksIslandsVsRS.xlsx
+++ b/models/NarxModelSearch/benchmarksIslandsVsRS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madks\Documents\GitHub\Ozone-Narx-DNN\models\NarxModelSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A41F49D-17D5-4D03-BB72-BB5F8E2FDD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B28A403-CEAD-49BB-A5DD-F465679ADDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="6" xr2:uid="{61FBCCFF-D26E-44A9-A7DF-005C2E7C4778}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="783" activeTab="6" xr2:uid="{61FBCCFF-D26E-44A9-A7DF-005C2E7C4778}"/>
   </bookViews>
   <sheets>
     <sheet name="Rosenbrock" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="T-testResults" sheetId="8" r:id="rId5"/>
     <sheet name="MT_CY_DMtests" sheetId="10" r:id="rId6"/>
     <sheet name="AblationAverages" sheetId="13" r:id="rId7"/>
+    <sheet name="AblationAveragesReduced" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3802" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="142">
   <si>
     <t>ackley</t>
   </si>
@@ -451,12 +452,48 @@
   <si>
     <t>on "3x {BO} 2x {PSO} 1x {Rand, GA, DE}"</t>
   </si>
+  <si>
+    <t>Accuracy (rank out of 6):</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>PSO</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>total islands</t>
+  </si>
+  <si>
+    <t>Expected ratios:</t>
+  </si>
+  <si>
+    <t>Island counts:</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>on "4x {BO} ,1x {PSO, Rand, GA, DE}"</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +520,13 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -695,10 +739,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -733,10 +778,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -745,13 +791,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1065,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CE41FD-81F2-4685-81AA-A855FD795D3A}">
   <dimension ref="A1:AA278"/>
   <sheetViews>
-    <sheetView topLeftCell="E229" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="AB271" sqref="AB271"/>
     </sheetView>
   </sheetViews>
@@ -61339,10 +61391,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CEA5EE-3BD5-4281-8B13-E05FA0E89401}">
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -61419,7 +61471,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="47" t="s">
         <v>119</v>
       </c>
       <c r="F3" s="33"/>
@@ -61447,7 +61499,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="40"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="8" t="s">
         <v>43</v>
       </c>
@@ -61490,35 +61542,35 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="33"/>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="39" t="s">
         <v>97</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="39" t="s">
         <v>98</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="40" t="s">
         <v>97</v>
       </c>
       <c r="K5" s="9"/>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="39" t="s">
         <v>98</v>
       </c>
       <c r="M5" s="11"/>
-      <c r="N5" s="38" t="s">
+      <c r="N5" s="39" t="s">
         <v>97</v>
       </c>
       <c r="O5" s="9"/>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="39" t="s">
         <v>98</v>
       </c>
       <c r="Q5" s="11"/>
-      <c r="R5" s="39" t="s">
+      <c r="R5" s="40" t="s">
         <v>97</v>
       </c>
       <c r="S5" s="9"/>
-      <c r="T5" s="38" t="s">
+      <c r="T5" s="39" t="s">
         <v>98</v>
       </c>
       <c r="U5" s="11"/>
@@ -61634,7 +61686,7 @@
         <f>Rastrigin!P106</f>
         <v>34.28</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P7" s="44">
         <f>Rastrigin!N107</f>
         <v>8.98</v>
       </c>
@@ -61678,7 +61730,7 @@
         <f>Rosenbrock!Y106</f>
         <v>13708.52</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="43">
         <f>Rosenbrock!W107</f>
         <v>9.02</v>
       </c>
@@ -61802,7 +61854,7 @@
         <f>Schaffer!G141</f>
         <v>54.34</v>
       </c>
-      <c r="T9" s="42">
+      <c r="T9" s="43">
         <f>Schaffer!E142</f>
         <v>8.02</v>
       </c>
@@ -61895,7 +61947,7 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="37" t="s">
         <v>111</v>
       </c>
       <c r="F11" s="12">
@@ -61922,7 +61974,7 @@
         <f>Ackley!Y141</f>
         <v>0.51</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="43">
         <f>Ackley!W142</f>
         <v>8.86</v>
       </c>
@@ -61982,7 +62034,7 @@
         <f>Rosenbrock!G176</f>
         <v>2851.84</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="44">
         <f>Rosenbrock!E177</f>
         <v>8.69</v>
       </c>
@@ -62275,7 +62327,7 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="37" t="s">
         <v>118</v>
       </c>
       <c r="F16" s="12">
@@ -62302,7 +62354,7 @@
         <f>Ackley!P211</f>
         <v>0.25</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="43">
         <f>Ackley!N212</f>
         <v>8.57</v>
       </c>
@@ -62427,7 +62479,7 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="37" t="s">
         <v>124</v>
       </c>
       <c r="F18" s="12">
@@ -62503,7 +62555,7 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="38" t="s">
         <v>128</v>
       </c>
       <c r="F19" s="14">
@@ -62530,7 +62582,7 @@
         <f>Ackley!P246</f>
         <v>0.68</v>
       </c>
-      <c r="L19" s="47">
+      <c r="L19" s="48">
         <f>Ackley!N247</f>
         <v>8.3699999999999992</v>
       </c>
@@ -62538,7 +62590,7 @@
         <f>Ackley!P247</f>
         <v>0.45</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="42">
         <f>Rastrigin!N246</f>
         <v>618.09</v>
       </c>
@@ -62605,7 +62657,7 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="45" t="s">
         <v>106</v>
       </c>
       <c r="F21" t="s">
@@ -62620,7 +62672,7 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="46" t="s">
         <v>122</v>
       </c>
       <c r="F22" s="29">
@@ -62656,7 +62708,7 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="46" t="s">
         <v>121</v>
       </c>
       <c r="F23" s="29"/>
@@ -62692,7 +62744,7 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="46" t="s">
         <v>105</v>
       </c>
       <c r="F24" s="29"/>
@@ -62766,7 +62818,7 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="45" t="s">
         <v>106</v>
       </c>
       <c r="F26" t="s">
@@ -62777,7 +62829,7 @@
       <c r="X26" s="7"/>
     </row>
     <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="46" t="s">
         <v>122</v>
       </c>
       <c r="F27" s="29">
@@ -62806,7 +62858,7 @@
       <c r="U27" s="31"/>
     </row>
     <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E28" s="45" t="s">
+      <c r="E28" s="46" t="s">
         <v>126</v>
       </c>
       <c r="F28" s="29"/>
@@ -62847,7 +62899,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="45" t="s">
         <v>106</v>
       </c>
       <c r="F30" t="s">
@@ -62855,7 +62907,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="46" t="s">
         <v>122</v>
       </c>
       <c r="F31" s="29">
@@ -62884,7 +62936,7 @@
       <c r="U31" s="31"/>
     </row>
     <row r="32" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="46" t="s">
         <v>126</v>
       </c>
       <c r="F32" s="29"/>
@@ -62924,8 +62976,1016 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E37" s="1"/>
+    <row r="36" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E37" s="27">
+        <v>8</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="31"/>
+    </row>
+    <row r="38" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E38" s="17"/>
+      <c r="F38" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="K38" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E39" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="17">
+        <v>4</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1</v>
+      </c>
+      <c r="I39" s="9">
+        <v>1</v>
+      </c>
+      <c r="J39" s="11">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <f>SUM(F39:J39)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E40" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="53">
+        <f>F39/$E$37</f>
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="51">
+        <f>G39/$E$37</f>
+        <v>0.125</v>
+      </c>
+      <c r="H40" s="51">
+        <f>H39/$E$37</f>
+        <v>0.125</v>
+      </c>
+      <c r="I40" s="51">
+        <f>I39/$E$37</f>
+        <v>0.125</v>
+      </c>
+      <c r="J40" s="52">
+        <f>J39/$E$37</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E42" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42">
+        <v>0.1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="27">
+        <v>8</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" t="s">
+        <v>129</v>
+      </c>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="31"/>
+    </row>
+    <row r="45" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E45" s="17"/>
+      <c r="F45" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J45" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="K45" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E46" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="17">
+        <v>2</v>
+      </c>
+      <c r="G46" s="9">
+        <v>2</v>
+      </c>
+      <c r="H46" s="9">
+        <v>2</v>
+      </c>
+      <c r="I46" s="9">
+        <v>1</v>
+      </c>
+      <c r="J46" s="11">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <f>SUM(F46:J46)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E47" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="53">
+        <f>F46/$E$37</f>
+        <v>0.25</v>
+      </c>
+      <c r="G47" s="51">
+        <f>G46/$E$37</f>
+        <v>0.25</v>
+      </c>
+      <c r="H47" s="51">
+        <f>H46/$E$37</f>
+        <v>0.25</v>
+      </c>
+      <c r="I47" s="51">
+        <f>I46/$E$37</f>
+        <v>0.125</v>
+      </c>
+      <c r="J47" s="52">
+        <f>J46/$E$37</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49">
+        <v>0.1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9560DDCE-6A26-4DFC-8300-4EAE2EB40D3A}">
+  <dimension ref="A1:X17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="29.90625" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" customWidth="1"/>
+    <col min="14" max="14" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.90625" customWidth="1"/>
+    <col min="18" max="18" width="14.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.08984375" customWidth="1"/>
+    <col min="20" max="20" width="11.90625" customWidth="1"/>
+    <col min="21" max="21" width="12.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="S4" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="T4" s="9"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="S5" s="9"/>
+      <c r="T5" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="U5" s="11"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+    </row>
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="17">
+        <f>Rosenbrock!N106</f>
+        <v>40455.75</v>
+      </c>
+      <c r="G7" s="9">
+        <f>Rosenbrock!P106</f>
+        <v>6752.81</v>
+      </c>
+      <c r="H7" s="17">
+        <f>Rosenbrock!N107</f>
+        <v>9.15</v>
+      </c>
+      <c r="I7" s="11">
+        <f>Rosenbrock!P107</f>
+        <v>0.3</v>
+      </c>
+      <c r="J7" s="9">
+        <f>Ackley!N106</f>
+        <v>19.29</v>
+      </c>
+      <c r="K7" s="9">
+        <f>Ackley!P106</f>
+        <v>0.37</v>
+      </c>
+      <c r="L7" s="17">
+        <f>Ackley!N107</f>
+        <v>8.92</v>
+      </c>
+      <c r="M7" s="11">
+        <f>Ackley!P107</f>
+        <v>0.38</v>
+      </c>
+      <c r="N7" s="17">
+        <f>Rastrigin!N106</f>
+        <v>693.85</v>
+      </c>
+      <c r="O7" s="9">
+        <f>Rastrigin!P106</f>
+        <v>34.28</v>
+      </c>
+      <c r="P7" s="44">
+        <f>Rastrigin!N107</f>
+        <v>8.98</v>
+      </c>
+      <c r="Q7" s="11">
+        <f>Rastrigin!P107</f>
+        <v>0.23</v>
+      </c>
+      <c r="R7" s="9">
+        <f>Schaffer!N106</f>
+        <v>505.01</v>
+      </c>
+      <c r="S7" s="9">
+        <f>Schaffer!P106</f>
+        <v>19.27</v>
+      </c>
+      <c r="T7" s="17">
+        <f>Schaffer!N107</f>
+        <v>8.07</v>
+      </c>
+      <c r="U7" s="11">
+        <f>Schaffer!P107</f>
+        <v>0.23</v>
+      </c>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="43">
+        <f>Rosenbrock!W106</f>
+        <v>25543.46</v>
+      </c>
+      <c r="G8" s="7">
+        <f>Rosenbrock!Y106</f>
+        <v>13708.52</v>
+      </c>
+      <c r="H8" s="43">
+        <f>Rosenbrock!W107</f>
+        <v>9.02</v>
+      </c>
+      <c r="I8" s="13">
+        <f>Rosenbrock!Y107</f>
+        <v>0.51</v>
+      </c>
+      <c r="J8" s="7">
+        <f>Ackley!W106</f>
+        <v>19.27</v>
+      </c>
+      <c r="K8" s="7">
+        <f>Ackley!Y106</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L8" s="12">
+        <f>Ackley!W107</f>
+        <v>8.98</v>
+      </c>
+      <c r="M8" s="13">
+        <f>Ackley!Y107</f>
+        <v>0.36</v>
+      </c>
+      <c r="N8" s="12">
+        <f>Rastrigin!W106</f>
+        <v>635.84</v>
+      </c>
+      <c r="O8" s="7">
+        <f>Rastrigin!Y106</f>
+        <v>87.64</v>
+      </c>
+      <c r="P8" s="12">
+        <f>Rastrigin!W107</f>
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="Q8" s="13">
+        <f>Rastrigin!Y107</f>
+        <v>0.32</v>
+      </c>
+      <c r="R8" s="25">
+        <f>Schaffer!W106</f>
+        <v>471.38</v>
+      </c>
+      <c r="S8" s="7">
+        <f>Schaffer!Y106</f>
+        <v>59.64</v>
+      </c>
+      <c r="T8" s="12">
+        <f>Schaffer!W107</f>
+        <v>8.07</v>
+      </c>
+      <c r="U8" s="13">
+        <f>Schaffer!Y107</f>
+        <v>0.21</v>
+      </c>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="12">
+        <f>Rosenbrock!E141</f>
+        <v>28047.98</v>
+      </c>
+      <c r="G9" s="7">
+        <f>Rosenbrock!G141</f>
+        <v>14114.72</v>
+      </c>
+      <c r="H9" s="12">
+        <f>Rosenbrock!E142</f>
+        <v>9.09</v>
+      </c>
+      <c r="I9" s="13">
+        <f>Rosenbrock!G142</f>
+        <v>0.4</v>
+      </c>
+      <c r="J9" s="7">
+        <f>Ackley!E141</f>
+        <v>19.190000000000001</v>
+      </c>
+      <c r="K9" s="13">
+        <f>Ackley!G141</f>
+        <v>0.48</v>
+      </c>
+      <c r="L9" s="12">
+        <f>Ackley!E142</f>
+        <v>9.08</v>
+      </c>
+      <c r="M9" s="13">
+        <f>Ackley!G142</f>
+        <v>0.41</v>
+      </c>
+      <c r="N9" s="12">
+        <f>Rastrigin!E141</f>
+        <v>649.87</v>
+      </c>
+      <c r="O9" s="7">
+        <f>Rastrigin!G141</f>
+        <v>71.47</v>
+      </c>
+      <c r="P9" s="12">
+        <f>Rastrigin!E142</f>
+        <v>9.1</v>
+      </c>
+      <c r="Q9" s="13">
+        <f>Rastrigin!G142</f>
+        <v>0.23</v>
+      </c>
+      <c r="R9" s="24">
+        <f>Schaffer!E141</f>
+        <v>465.22</v>
+      </c>
+      <c r="S9" s="7">
+        <f>Schaffer!G141</f>
+        <v>54.34</v>
+      </c>
+      <c r="T9" s="43">
+        <f>Schaffer!E142</f>
+        <v>8.02</v>
+      </c>
+      <c r="U9" s="13">
+        <f>Schaffer!G142</f>
+        <v>0.32</v>
+      </c>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="12">
+        <f>Rosenbrock!N141</f>
+        <v>25861.86</v>
+      </c>
+      <c r="G10" s="7">
+        <f>Rosenbrock!P141</f>
+        <v>12143.24</v>
+      </c>
+      <c r="H10" s="12">
+        <f>Rosenbrock!N142</f>
+        <v>9.08</v>
+      </c>
+      <c r="I10" s="13">
+        <f>Rosenbrock!P142</f>
+        <v>0.4</v>
+      </c>
+      <c r="J10" s="24">
+        <f>Ackley!N141</f>
+        <v>18.940000000000001</v>
+      </c>
+      <c r="K10" s="13">
+        <f>Ackley!P141</f>
+        <v>0.66</v>
+      </c>
+      <c r="L10" s="12">
+        <f>Ackley!N142</f>
+        <v>9.07</v>
+      </c>
+      <c r="M10" s="13">
+        <f>Ackley!P142</f>
+        <v>0.37</v>
+      </c>
+      <c r="N10" s="12">
+        <f>Rastrigin!N141</f>
+        <v>626.57000000000005</v>
+      </c>
+      <c r="O10" s="7">
+        <f>Rastrigin!P141</f>
+        <v>86.68</v>
+      </c>
+      <c r="P10" s="12">
+        <f>Rastrigin!N142</f>
+        <v>9.08</v>
+      </c>
+      <c r="Q10" s="13">
+        <f>Rastrigin!P142</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R10" s="7">
+        <f>Schaffer!N141</f>
+        <v>471.51</v>
+      </c>
+      <c r="S10" s="7">
+        <f>Schaffer!P141</f>
+        <v>52.05</v>
+      </c>
+      <c r="T10" s="12">
+        <f>Schaffer!N142</f>
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="U10" s="13">
+        <f>Schaffer!P142</f>
+        <v>0.31</v>
+      </c>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+    </row>
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="12">
+        <f>Rosenbrock!W141</f>
+        <v>31222.59</v>
+      </c>
+      <c r="G11" s="7">
+        <f>Rosenbrock!Y141</f>
+        <v>12983.88</v>
+      </c>
+      <c r="H11" s="12">
+        <f>Rosenbrock!W142</f>
+        <v>9.11</v>
+      </c>
+      <c r="I11" s="13">
+        <f>Rosenbrock!Y142</f>
+        <v>0.44</v>
+      </c>
+      <c r="J11" s="7">
+        <f>Ackley!W141</f>
+        <v>19.170000000000002</v>
+      </c>
+      <c r="K11" s="13">
+        <f>Ackley!Y141</f>
+        <v>0.51</v>
+      </c>
+      <c r="L11" s="43">
+        <f>Ackley!W142</f>
+        <v>8.86</v>
+      </c>
+      <c r="M11" s="13">
+        <f>Ackley!Y142</f>
+        <v>0.21</v>
+      </c>
+      <c r="N11" s="33">
+        <f>Rastrigin!W141</f>
+        <v>621.27</v>
+      </c>
+      <c r="O11" s="7">
+        <f>Rastrigin!Y141</f>
+        <v>88.8</v>
+      </c>
+      <c r="P11" s="12">
+        <f>Rastrigin!W142</f>
+        <v>9.02</v>
+      </c>
+      <c r="Q11" s="13">
+        <f>Rastrigin!Y142</f>
+        <v>0.23</v>
+      </c>
+      <c r="R11" s="7">
+        <f>Schaffer!W141</f>
+        <v>492.13</v>
+      </c>
+      <c r="S11" s="7">
+        <f>Schaffer!Y141</f>
+        <v>50.07</v>
+      </c>
+      <c r="T11" s="12">
+        <f>Schaffer!W142</f>
+        <v>8.11</v>
+      </c>
+      <c r="U11" s="13">
+        <f>Schaffer!Y142</f>
+        <v>0.38</v>
+      </c>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+    </row>
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="49">
+        <f>Rosenbrock!E1</f>
+        <v>17604.830000000002</v>
+      </c>
+      <c r="G12" s="31">
+        <f>Rosenbrock!G1</f>
+        <v>10654.88</v>
+      </c>
+      <c r="H12" s="50">
+        <f>Rosenbrock!E34</f>
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="I12" s="29">
+        <f>Rosenbrock!G34</f>
+        <v>1.56</v>
+      </c>
+      <c r="J12" s="27">
+        <f>Ackley!E1</f>
+        <v>19</v>
+      </c>
+      <c r="K12" s="31">
+        <f>Ackley!G1</f>
+        <v>0.43</v>
+      </c>
+      <c r="L12" s="50">
+        <f>Ackley!E34</f>
+        <v>7.8</v>
+      </c>
+      <c r="M12" s="29">
+        <f>Ackley!G34</f>
+        <v>0.05</v>
+      </c>
+      <c r="N12" s="27">
+        <f>Rastrigin!E1</f>
+        <v>625.92999999999995</v>
+      </c>
+      <c r="O12" s="31">
+        <f>Rastrigin!G1</f>
+        <v>72.760000000000005</v>
+      </c>
+      <c r="P12" s="50">
+        <f>Rastrigin!E34</f>
+        <v>7.97</v>
+      </c>
+      <c r="Q12" s="29">
+        <f>Rastrigin!G34</f>
+        <v>0.38</v>
+      </c>
+      <c r="R12" s="27">
+        <f>Schaffer!E1</f>
+        <v>473.75</v>
+      </c>
+      <c r="S12" s="31">
+        <f>Schaffer!G1</f>
+        <v>46.38</v>
+      </c>
+      <c r="T12" s="50">
+        <f>Schaffer!E34</f>
+        <v>7.85</v>
+      </c>
+      <c r="U12" s="31">
+        <f>Schaffer!G34</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+    </row>
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+    </row>
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="29">
+        <v>1</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="27">
+        <v>2</v>
+      </c>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="29">
+        <v>2</v>
+      </c>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="27">
+        <v>4</v>
+      </c>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="X17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/models/NarxModelSearch/benchmarksIslandsVsRS.xlsx
+++ b/models/NarxModelSearch/benchmarksIslandsVsRS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madks\Documents\GitHub\Ozone-Narx-DNN\models\NarxModelSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B28A403-CEAD-49BB-A5DD-F465679ADDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04061CB9-FE3F-4C64-9165-E92E0AEA0A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="783" activeTab="6" xr2:uid="{61FBCCFF-D26E-44A9-A7DF-005C2E7C4778}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15370" tabRatio="440" activeTab="4" xr2:uid="{61FBCCFF-D26E-44A9-A7DF-005C2E7C4778}"/>
   </bookViews>
   <sheets>
     <sheet name="Rosenbrock" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="143">
   <si>
     <t>ackley</t>
   </si>
@@ -488,6 +488,9 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Execution time (non-communicating)</t>
+  </si>
 </sst>
 </file>
 
@@ -550,7 +553,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -738,12 +741,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -800,6 +812,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1115,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CE41FD-81F2-4685-81AA-A855FD795D3A}">
-  <dimension ref="A1:AA278"/>
+  <dimension ref="A1:AC278"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AB271" sqref="AB271"/>
+      <selection activeCell="H4" sqref="H4:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1135,7 +1148,7 @@
     <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1160,35 +1173,35 @@
         <f>ROUND(STDEV(H4:H33), 2)</f>
         <v>10654.88</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1">
-        <f>ROUND(AVERAGE(O4:O33), 2)</f>
+      <c r="P1" s="1">
+        <f>ROUND(AVERAGE(Q4:Q33), 2)</f>
         <v>43524.67</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="Q1" s="1" t="str">
         <f>"+/-"</f>
         <v>+/-</v>
       </c>
-      <c r="P1" s="1">
-        <f>ROUND(STDEV(O4:O33), 2)</f>
+      <c r="R1" s="1">
+        <f>ROUND(STDEV(Q4:Q33), 2)</f>
         <v>4593.22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1210,14 +1223,14 @@
         <f>ROUND(STDEV(I4:I33), 2)</f>
         <v>9867.77</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -1246,28 +1259,31 @@
         <v>99</v>
       </c>
       <c r="K3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>2</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>8</v>
       </c>
@@ -1292,37 +1308,37 @@
       <c r="I4">
         <v>33410.36</v>
       </c>
-      <c r="K4">
-        <v>500</v>
-      </c>
-      <c r="L4">
+      <c r="M4">
+        <v>500</v>
+      </c>
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4">
-        <v>50</v>
-      </c>
-      <c r="O4">
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4">
+        <v>50</v>
+      </c>
+      <c r="Q4">
         <v>44086.97</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5"/>
+      <c r="U4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5" t="s">
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>8</v>
       </c>
@@ -1347,41 +1363,41 @@
       <c r="I5">
         <v>23595.1</v>
       </c>
-      <c r="K5">
-        <v>500</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
+        <v>500</v>
+      </c>
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="M5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5">
-        <v>50</v>
-      </c>
-      <c r="O5">
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5">
+        <v>50</v>
+      </c>
+      <c r="Q5">
         <v>45675.9</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="3">
+      <c r="U5" s="3">
         <v>11100.240999999998</v>
       </c>
-      <c r="T5" s="3">
+      <c r="V5" s="3">
         <v>44658.583999999995</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="AB5" s="3">
         <v>32695.929000000004</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AC5" s="3">
         <v>44658.583999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>8</v>
       </c>
@@ -1406,41 +1422,41 @@
       <c r="I6">
         <v>29316.15</v>
       </c>
-      <c r="K6">
-        <v>500</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
+        <v>500</v>
+      </c>
+      <c r="N6">
         <v>3</v>
       </c>
-      <c r="M6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6">
-        <v>50</v>
-      </c>
-      <c r="O6">
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6">
+        <v>50</v>
+      </c>
+      <c r="Q6">
         <v>45787.33</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="3">
+      <c r="U6" s="3">
         <v>4916175.312365585</v>
       </c>
-      <c r="T6" s="3">
+      <c r="V6" s="3">
         <v>9631857.7790933289</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="AB6" s="3">
         <v>36071442.894387566</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AC6" s="3">
         <v>9631857.7790933289</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>8</v>
       </c>
@@ -1465,41 +1481,41 @@
       <c r="I7">
         <v>35003.56</v>
       </c>
-      <c r="K7">
-        <v>500</v>
-      </c>
-      <c r="L7">
+      <c r="M7">
+        <v>500</v>
+      </c>
+      <c r="N7">
         <v>4</v>
       </c>
-      <c r="M7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7">
-        <v>50</v>
-      </c>
-      <c r="O7">
+      <c r="O7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7">
+        <v>50</v>
+      </c>
+      <c r="Q7">
         <v>49172.57</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="3">
+      <c r="U7" s="3">
         <v>10</v>
       </c>
-      <c r="T7" s="3">
+      <c r="V7" s="3">
         <v>10</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="AB7" s="3">
         <v>10</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AC7" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>8</v>
       </c>
@@ -1524,37 +1540,37 @@
       <c r="I8">
         <v>44184.66</v>
       </c>
-      <c r="K8">
-        <v>500</v>
-      </c>
-      <c r="L8">
+      <c r="M8">
+        <v>500</v>
+      </c>
+      <c r="N8">
         <v>5</v>
       </c>
-      <c r="M8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8">
-        <v>50</v>
-      </c>
-      <c r="O8">
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8">
+        <v>50</v>
+      </c>
+      <c r="Q8">
         <v>44232.61</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3"/>
-      <c r="Y8" s="3" t="s">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="AA8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>8</v>
       </c>
@@ -1579,37 +1595,37 @@
       <c r="I9">
         <v>31661.83</v>
       </c>
-      <c r="K9">
-        <v>500</v>
-      </c>
-      <c r="L9">
+      <c r="M9">
+        <v>500</v>
+      </c>
+      <c r="N9">
         <v>6</v>
       </c>
-      <c r="M9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9">
-        <v>50</v>
-      </c>
-      <c r="O9">
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9">
+        <v>50</v>
+      </c>
+      <c r="Q9">
         <v>45179.5</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="3">
-        <v>16</v>
-      </c>
-      <c r="T9" s="3"/>
-      <c r="Y9" s="3" t="s">
+      <c r="U9" s="3">
+        <v>16</v>
+      </c>
+      <c r="V9" s="3"/>
+      <c r="AA9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>13</v>
       </c>
-      <c r="AA9" s="3"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC9" s="3"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>8</v>
       </c>
@@ -1634,37 +1650,37 @@
       <c r="I10">
         <v>24180.28</v>
       </c>
-      <c r="K10">
-        <v>500</v>
-      </c>
-      <c r="L10">
+      <c r="M10">
+        <v>500</v>
+      </c>
+      <c r="N10">
         <v>7</v>
       </c>
-      <c r="M10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10">
-        <v>50</v>
-      </c>
-      <c r="O10">
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10">
+        <v>50</v>
+      </c>
+      <c r="Q10">
         <v>36936.050000000003</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="6">
+      <c r="U10" s="6">
         <v>-27.822642058587206</v>
       </c>
-      <c r="T10" s="3"/>
-      <c r="Y10" s="3" t="s">
+      <c r="V10" s="3"/>
+      <c r="AA10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="AB10" s="6">
         <v>-5.5956919123035114</v>
       </c>
-      <c r="AA10" s="3"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC10" s="3"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1689,37 +1705,37 @@
       <c r="I11">
         <v>35026.78</v>
       </c>
-      <c r="K11">
-        <v>500</v>
-      </c>
-      <c r="L11">
-        <v>8</v>
-      </c>
-      <c r="M11" t="s">
-        <v>16</v>
+      <c r="M11">
+        <v>500</v>
       </c>
       <c r="N11">
-        <v>50</v>
-      </c>
-      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11">
+        <v>50</v>
+      </c>
+      <c r="Q11">
         <v>45544.95</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="3">
+      <c r="U11" s="3">
         <v>2.8023323262917699E-15</v>
       </c>
-      <c r="T11" s="3"/>
-      <c r="Y11" s="3" t="s">
+      <c r="V11" s="3"/>
+      <c r="AA11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AB11" s="3">
         <v>4.3439615826709914E-5</v>
       </c>
-      <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -1744,37 +1760,37 @@
       <c r="I12">
         <v>35079.800000000003</v>
       </c>
-      <c r="K12">
-        <v>500</v>
-      </c>
-      <c r="L12">
+      <c r="M12">
+        <v>500</v>
+      </c>
+      <c r="N12">
         <v>9</v>
       </c>
-      <c r="M12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12">
-        <v>50</v>
-      </c>
-      <c r="O12">
+      <c r="O12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12">
+        <v>50</v>
+      </c>
+      <c r="Q12">
         <v>46122.05</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1.7458836762762506</v>
       </c>
-      <c r="T12" s="3"/>
-      <c r="Y12" s="3" t="s">
+      <c r="V12" s="3"/>
+      <c r="AA12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>1.7709333959868729</v>
       </c>
-      <c r="AA12" s="3"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC12" s="3"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>8</v>
       </c>
@@ -1799,37 +1815,37 @@
       <c r="I13">
         <v>35500.769999999997</v>
       </c>
-      <c r="K13">
-        <v>500</v>
-      </c>
-      <c r="L13">
+      <c r="M13">
+        <v>500</v>
+      </c>
+      <c r="N13">
         <v>10</v>
       </c>
-      <c r="M13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N13">
-        <v>50</v>
-      </c>
-      <c r="O13">
+      <c r="O13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13">
+        <v>50</v>
+      </c>
+      <c r="Q13">
         <v>43847.91</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S13" s="6">
+      <c r="U13" s="6">
         <v>5.6046646525835398E-15</v>
       </c>
-      <c r="T13" s="3"/>
-      <c r="Y13" s="3" t="s">
+      <c r="V13" s="3"/>
+      <c r="AA13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="AB13" s="6">
         <v>8.6879231653419828E-5</v>
       </c>
-      <c r="AA13" s="3"/>
-    </row>
-    <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC13" s="3"/>
+    </row>
+    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>8</v>
       </c>
@@ -1857,37 +1873,37 @@
       <c r="J14">
         <v>8.86</v>
       </c>
-      <c r="K14">
-        <v>500</v>
-      </c>
-      <c r="L14">
+      <c r="M14">
+        <v>500</v>
+      </c>
+      <c r="N14">
         <v>11</v>
       </c>
-      <c r="M14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14">
+      <c r="O14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14">
         <v>51</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>37677.199999999997</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="T14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S14" s="4">
+      <c r="U14" s="4">
         <v>2.119905299221255</v>
       </c>
-      <c r="T14" s="4"/>
-      <c r="Y14" s="4" t="s">
+      <c r="V14" s="4"/>
+      <c r="AA14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="AB14" s="4">
         <v>2.1603686564627926</v>
       </c>
-      <c r="AA14" s="4"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC14" s="4"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>8</v>
       </c>
@@ -1915,23 +1931,23 @@
       <c r="J15">
         <v>9.4499999999999993</v>
       </c>
-      <c r="K15">
-        <v>500</v>
-      </c>
-      <c r="L15">
+      <c r="M15">
+        <v>500</v>
+      </c>
+      <c r="N15">
         <v>12</v>
       </c>
-      <c r="M15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15">
+      <c r="O15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15">
         <v>52</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>44381.85</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>8</v>
       </c>
@@ -1959,23 +1975,23 @@
       <c r="J16">
         <v>9.11</v>
       </c>
-      <c r="K16">
-        <v>500</v>
-      </c>
-      <c r="L16">
+      <c r="M16">
+        <v>500</v>
+      </c>
+      <c r="N16">
         <v>13</v>
       </c>
-      <c r="M16" t="s">
-        <v>16</v>
-      </c>
-      <c r="N16">
+      <c r="O16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16">
         <v>53</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>44877.48</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>8</v>
       </c>
@@ -2003,29 +2019,29 @@
       <c r="J17">
         <v>7.9</v>
       </c>
-      <c r="K17">
-        <v>500</v>
-      </c>
-      <c r="L17">
+      <c r="M17">
+        <v>500</v>
+      </c>
+      <c r="N17">
         <v>14</v>
       </c>
-      <c r="M17" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17">
+      <c r="O17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17">
         <v>54</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>43756.9</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="AA17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>8</v>
       </c>
@@ -2053,29 +2069,29 @@
       <c r="J18">
         <v>8.8800000000000008</v>
       </c>
-      <c r="K18">
-        <v>500</v>
-      </c>
-      <c r="L18">
+      <c r="M18">
+        <v>500</v>
+      </c>
+      <c r="N18">
         <v>15</v>
       </c>
-      <c r="M18" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18">
+      <c r="O18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18">
         <v>55</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>43887.43</v>
       </c>
-      <c r="R18" t="s">
+      <c r="T18" t="s">
         <v>19</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="AA18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>8</v>
       </c>
@@ -2103,29 +2119,29 @@
       <c r="J19">
         <v>7.78</v>
       </c>
-      <c r="K19">
-        <v>500</v>
-      </c>
-      <c r="L19">
-        <v>16</v>
-      </c>
-      <c r="M19" t="s">
-        <v>16</v>
+      <c r="M19">
+        <v>500</v>
       </c>
       <c r="N19">
+        <v>16</v>
+      </c>
+      <c r="O19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19">
         <v>56</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>47295.21</v>
       </c>
-      <c r="R19" t="s">
+      <c r="T19" t="s">
         <v>49</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="AA19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>8</v>
       </c>
@@ -2153,37 +2169,37 @@
       <c r="J20">
         <v>8.83</v>
       </c>
-      <c r="K20">
-        <v>500</v>
-      </c>
-      <c r="L20">
+      <c r="M20">
+        <v>500</v>
+      </c>
+      <c r="N20">
         <v>17</v>
       </c>
-      <c r="M20" t="s">
-        <v>16</v>
-      </c>
-      <c r="N20">
+      <c r="O20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20">
         <v>57</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>48537.69</v>
       </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5" t="s">
+      <c r="T20" s="5"/>
+      <c r="U20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="V20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5" t="s">
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA20" s="5" t="s">
+      <c r="AC20" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>8</v>
       </c>
@@ -2211,41 +2227,41 @@
       <c r="J21">
         <v>9.14</v>
       </c>
-      <c r="K21">
-        <v>500</v>
-      </c>
-      <c r="L21">
+      <c r="M21">
+        <v>500</v>
+      </c>
+      <c r="N21">
         <v>18</v>
       </c>
-      <c r="M21" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21">
+      <c r="O21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21">
         <v>58</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>44177.82</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>17604.833999999999</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>43524.667000000001</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="AA21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>29410.275999999998</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>43524.667000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>8</v>
       </c>
@@ -2273,41 +2289,41 @@
       <c r="J22">
         <v>8.7799999999999994</v>
       </c>
-      <c r="K22">
-        <v>500</v>
-      </c>
-      <c r="L22">
+      <c r="M22">
+        <v>500</v>
+      </c>
+      <c r="N22">
         <v>19</v>
       </c>
-      <c r="M22" t="s">
-        <v>16</v>
-      </c>
-      <c r="N22">
+      <c r="O22" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22">
         <v>59</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>36588.160000000003</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>113526440.74438345</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>21097663.785952862</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="AA22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>97372901.494942367</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>21097663.785952862</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>8</v>
       </c>
@@ -2335,41 +2351,41 @@
       <c r="J23">
         <v>8.9</v>
       </c>
-      <c r="K23">
-        <v>500</v>
-      </c>
-      <c r="L23">
+      <c r="M23">
+        <v>500</v>
+      </c>
+      <c r="N23">
         <v>20</v>
       </c>
-      <c r="M23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N23">
+      <c r="O23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23">
         <v>60</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>39381.49</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>30</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>30</v>
       </c>
-      <c r="Y23" s="3" t="s">
+      <c r="AA23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>30</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>8</v>
       </c>
@@ -2397,37 +2413,37 @@
       <c r="J24">
         <v>7.78</v>
       </c>
-      <c r="K24">
-        <v>500</v>
-      </c>
-      <c r="L24">
+      <c r="M24">
+        <v>500</v>
+      </c>
+      <c r="N24">
         <v>21</v>
       </c>
-      <c r="M24" t="s">
-        <v>16</v>
-      </c>
-      <c r="N24">
+      <c r="O24" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24">
         <v>61</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>48731.18</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3"/>
-      <c r="Y24" s="3" t="s">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3"/>
+      <c r="AA24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3"/>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3"/>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>8</v>
       </c>
@@ -2455,37 +2471,37 @@
       <c r="J25">
         <v>8.76</v>
       </c>
-      <c r="K25">
-        <v>500</v>
-      </c>
-      <c r="L25">
+      <c r="M25">
+        <v>500</v>
+      </c>
+      <c r="N25">
         <v>22</v>
       </c>
-      <c r="M25" t="s">
-        <v>16</v>
-      </c>
-      <c r="N25">
+      <c r="O25" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25">
         <v>62</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>38493.410000000003</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S25" s="3">
+      <c r="U25" s="3">
         <v>39</v>
       </c>
-      <c r="T25" s="3"/>
-      <c r="Y25" s="3" t="s">
+      <c r="V25" s="3"/>
+      <c r="AA25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="AB25" s="3">
         <v>41</v>
       </c>
-      <c r="AA25" s="3"/>
-    </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="AC25" s="3"/>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>8</v>
       </c>
@@ -2513,37 +2529,37 @@
       <c r="J26">
         <v>7.79</v>
       </c>
-      <c r="K26">
-        <v>500</v>
-      </c>
-      <c r="L26">
+      <c r="M26">
+        <v>500</v>
+      </c>
+      <c r="N26">
         <v>23</v>
       </c>
-      <c r="M26" t="s">
-        <v>16</v>
-      </c>
-      <c r="N26">
+      <c r="O26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26">
         <v>63</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>37614.910000000003</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S26" s="6">
+      <c r="U26" s="6">
         <v>-12.235773038619984</v>
       </c>
-      <c r="T26" s="3"/>
-      <c r="Y26" s="3" t="s">
+      <c r="V26" s="3"/>
+      <c r="AA26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="AB26" s="6">
         <v>-7.1026030121160133</v>
       </c>
-      <c r="AA26" s="3"/>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="AC26" s="3"/>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>8</v>
       </c>
@@ -2571,37 +2587,37 @@
       <c r="J27">
         <v>7.83</v>
       </c>
-      <c r="K27">
-        <v>500</v>
-      </c>
-      <c r="L27">
+      <c r="M27">
+        <v>500</v>
+      </c>
+      <c r="N27">
         <v>24</v>
       </c>
-      <c r="M27" t="s">
-        <v>16</v>
-      </c>
-      <c r="N27">
+      <c r="O27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27">
         <v>64</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>37991.64</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>3.1457123250486995E-15</v>
       </c>
-      <c r="T27" s="3"/>
-      <c r="Y27" s="3" t="s">
+      <c r="V27" s="3"/>
+      <c r="AA27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>5.905630384188439E-9</v>
       </c>
-      <c r="AA27" s="3"/>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="AC27" s="3"/>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>8</v>
       </c>
@@ -2629,37 +2645,37 @@
       <c r="J28">
         <v>9.26</v>
       </c>
-      <c r="K28">
-        <v>500</v>
-      </c>
-      <c r="L28">
+      <c r="M28">
+        <v>500</v>
+      </c>
+      <c r="N28">
         <v>25</v>
       </c>
-      <c r="M28" t="s">
-        <v>16</v>
-      </c>
-      <c r="N28">
+      <c r="O28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28">
         <v>65</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>43989.03</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S28" s="3">
+      <c r="U28" s="3">
         <v>1.6848751217112248</v>
       </c>
-      <c r="T28" s="3"/>
-      <c r="Y28" s="3" t="s">
+      <c r="V28" s="3"/>
+      <c r="AA28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z28" s="3">
+      <c r="AB28" s="3">
         <v>1.6828780021327077</v>
       </c>
-      <c r="AA28" s="3"/>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="AC28" s="3"/>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>8</v>
       </c>
@@ -2687,37 +2703,37 @@
       <c r="J29">
         <v>7.75</v>
       </c>
-      <c r="K29">
-        <v>500</v>
-      </c>
-      <c r="L29">
+      <c r="M29">
+        <v>500</v>
+      </c>
+      <c r="N29">
         <v>26</v>
       </c>
-      <c r="M29" t="s">
-        <v>16</v>
-      </c>
-      <c r="N29">
+      <c r="O29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29">
         <v>66</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>45053</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S29" s="6">
+      <c r="U29" s="6">
         <v>6.291424650097399E-15</v>
       </c>
-      <c r="T29" s="3"/>
-      <c r="Y29" s="3" t="s">
+      <c r="V29" s="3"/>
+      <c r="AA29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Z29" s="6">
+      <c r="AB29" s="6">
         <v>1.1811260768376878E-8</v>
       </c>
-      <c r="AA29" s="3"/>
-    </row>
-    <row r="30" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC29" s="3"/>
+    </row>
+    <row r="30" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>8</v>
       </c>
@@ -2745,37 +2761,37 @@
       <c r="J30">
         <v>7.81</v>
       </c>
-      <c r="K30">
-        <v>500</v>
-      </c>
-      <c r="L30">
+      <c r="M30">
+        <v>500</v>
+      </c>
+      <c r="N30">
         <v>27</v>
       </c>
-      <c r="M30" t="s">
-        <v>16</v>
-      </c>
-      <c r="N30">
+      <c r="O30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30">
         <v>67</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>31467.26</v>
       </c>
-      <c r="R30" s="4" t="s">
+      <c r="T30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S30" s="4">
+      <c r="U30" s="4">
         <v>2.0226909200367595</v>
       </c>
-      <c r="T30" s="4"/>
-      <c r="Y30" s="4" t="s">
+      <c r="V30" s="4"/>
+      <c r="AA30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z30" s="4">
+      <c r="AB30" s="4">
         <v>2.0195409704413767</v>
       </c>
-      <c r="AA30" s="4"/>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="AC30" s="4"/>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>8</v>
       </c>
@@ -2803,23 +2819,23 @@
       <c r="J31">
         <v>15</v>
       </c>
-      <c r="K31">
-        <v>500</v>
-      </c>
-      <c r="L31">
+      <c r="M31">
+        <v>500</v>
+      </c>
+      <c r="N31">
         <v>28</v>
       </c>
-      <c r="M31" t="s">
-        <v>16</v>
-      </c>
-      <c r="N31">
+      <c r="O31" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31">
         <v>68</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>44682.15</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>8</v>
       </c>
@@ -2847,19 +2863,19 @@
       <c r="J32">
         <v>8.91</v>
       </c>
-      <c r="K32">
-        <v>500</v>
-      </c>
-      <c r="L32">
+      <c r="M32">
+        <v>500</v>
+      </c>
+      <c r="N32">
         <v>29</v>
       </c>
-      <c r="M32" t="s">
-        <v>16</v>
-      </c>
-      <c r="N32">
+      <c r="O32" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32">
         <v>69</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>52698.400000000001</v>
       </c>
     </row>
@@ -2891,19 +2907,19 @@
       <c r="J33">
         <v>8.8699999999999992</v>
       </c>
-      <c r="K33">
-        <v>500</v>
-      </c>
-      <c r="L33">
+      <c r="M33">
+        <v>500</v>
+      </c>
+      <c r="N33">
         <v>30</v>
       </c>
-      <c r="M33" t="s">
-        <v>16</v>
-      </c>
-      <c r="N33">
+      <c r="O33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33">
         <v>70</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>47871.96</v>
       </c>
     </row>
@@ -15771,10 +15787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E33FE8-D5C0-4602-88AE-C10686592FF5}">
-  <dimension ref="A1:AF278"/>
+  <dimension ref="A1:AH278"/>
   <sheetViews>
-    <sheetView topLeftCell="D241" workbookViewId="0">
-      <selection activeCell="R249" sqref="R249:R278"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15788,7 +15804,7 @@
     <col min="20" max="20" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -15813,36 +15829,36 @@
         <f>ROUND(STDEV(H4:H33), 2)</f>
         <v>0.43</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1">
-        <f>ROUND(AVERAGE(O4:O33), 2)</f>
+      <c r="P1" s="1">
+        <f>ROUND(AVERAGE(Q4:Q33), 2)</f>
         <v>19.64</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="Q1" s="1" t="str">
         <f>"+/-"</f>
         <v>+/-</v>
       </c>
-      <c r="P1" s="1">
-        <f>ROUND(STDEV(O4:O33), 2)</f>
+      <c r="R1" s="1">
+        <f>ROUND(STDEV(Q4:Q33), 2)</f>
         <v>0.22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="1"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AH1" s="1"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -15864,14 +15880,14 @@
         <f>ROUND(STDEV(I4:I33), 2)</f>
         <v>0.38</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -15900,28 +15916,31 @@
         <v>99</v>
       </c>
       <c r="K3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>2</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>8</v>
       </c>
@@ -15946,37 +15965,37 @@
       <c r="I4">
         <v>19.02</v>
       </c>
-      <c r="K4">
-        <v>500</v>
-      </c>
-      <c r="L4">
+      <c r="M4">
+        <v>500</v>
+      </c>
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>50</v>
-      </c>
-      <c r="O4">
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>50</v>
+      </c>
+      <c r="Q4">
         <v>19.52</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5"/>
+      <c r="U4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5" t="s">
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>8</v>
       </c>
@@ -16001,41 +16020,41 @@
       <c r="I5">
         <v>19</v>
       </c>
-      <c r="K5">
-        <v>500</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
+        <v>500</v>
+      </c>
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="M5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>50</v>
-      </c>
-      <c r="O5">
+      <c r="O5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>50</v>
+      </c>
+      <c r="Q5">
         <v>19.600000000000001</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="3">
+      <c r="U5" s="3">
         <v>18.960999999999999</v>
       </c>
-      <c r="T5" s="3">
+      <c r="V5" s="3">
         <v>19.655000000000001</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="AB5" s="3">
         <v>19.036000000000001</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AC5" s="3">
         <v>19.655000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>8</v>
       </c>
@@ -16060,41 +16079,41 @@
       <c r="I6">
         <v>18.77</v>
       </c>
-      <c r="K6">
-        <v>500</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
+        <v>500</v>
+      </c>
+      <c r="N6">
         <v>3</v>
       </c>
-      <c r="M6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>50</v>
-      </c>
-      <c r="O6">
+      <c r="O6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>50</v>
+      </c>
+      <c r="Q6">
         <v>19.5</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="3">
+      <c r="U6" s="3">
         <v>6.7121111111111242E-2</v>
       </c>
-      <c r="T6" s="3">
+      <c r="V6" s="3">
         <v>9.6094444444444441E-2</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="AB6" s="3">
         <v>0.12247111111111125</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AC6" s="3">
         <v>9.6094444444444441E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>8</v>
       </c>
@@ -16119,41 +16138,41 @@
       <c r="I7">
         <v>18.39</v>
       </c>
-      <c r="K7">
-        <v>500</v>
-      </c>
-      <c r="L7">
+      <c r="M7">
+        <v>500</v>
+      </c>
+      <c r="N7">
         <v>4</v>
       </c>
-      <c r="M7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>50</v>
-      </c>
-      <c r="O7">
+      <c r="O7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>50</v>
+      </c>
+      <c r="Q7">
         <v>19.41</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="3">
+      <c r="U7" s="3">
         <v>10</v>
       </c>
-      <c r="T7" s="3">
+      <c r="V7" s="3">
         <v>10</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="AB7" s="3">
         <v>10</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AC7" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>8</v>
       </c>
@@ -16178,37 +16197,37 @@
       <c r="I8">
         <v>18.82</v>
       </c>
-      <c r="K8">
-        <v>500</v>
-      </c>
-      <c r="L8">
+      <c r="M8">
+        <v>500</v>
+      </c>
+      <c r="N8">
         <v>5</v>
       </c>
-      <c r="M8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>50</v>
-      </c>
-      <c r="O8">
+      <c r="O8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>50</v>
+      </c>
+      <c r="Q8">
         <v>19.7</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3"/>
-      <c r="Y8" s="3" t="s">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="AA8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>8</v>
       </c>
@@ -16233,37 +16252,37 @@
       <c r="I9">
         <v>19.100000000000001</v>
       </c>
-      <c r="K9">
-        <v>500</v>
-      </c>
-      <c r="L9">
+      <c r="M9">
+        <v>500</v>
+      </c>
+      <c r="N9">
         <v>6</v>
       </c>
-      <c r="M9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>50</v>
-      </c>
-      <c r="O9">
+      <c r="O9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>50</v>
+      </c>
+      <c r="Q9">
         <v>20.46</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>17</v>
       </c>
-      <c r="T9" s="3"/>
-      <c r="Y9" s="3" t="s">
+      <c r="V9" s="3"/>
+      <c r="AA9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>18</v>
       </c>
-      <c r="AA9" s="3"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AC9" s="3"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>8</v>
       </c>
@@ -16288,37 +16307,37 @@
       <c r="I10">
         <v>19.23</v>
       </c>
-      <c r="K10">
-        <v>500</v>
-      </c>
-      <c r="L10">
+      <c r="M10">
+        <v>500</v>
+      </c>
+      <c r="N10">
         <v>7</v>
       </c>
-      <c r="M10" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>50</v>
-      </c>
-      <c r="O10">
+      <c r="O10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>50</v>
+      </c>
+      <c r="Q10">
         <v>19.46</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="6">
+      <c r="U10" s="6">
         <v>-5.4322368420494129</v>
       </c>
-      <c r="T10" s="3"/>
-      <c r="Y10" s="3" t="s">
+      <c r="V10" s="3"/>
+      <c r="AA10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="AB10" s="6">
         <v>-4.1869694147972645</v>
       </c>
-      <c r="AA10" s="3"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AC10" s="3"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>8</v>
       </c>
@@ -16343,37 +16362,37 @@
       <c r="I11">
         <v>19.71</v>
       </c>
-      <c r="K11">
-        <v>500</v>
-      </c>
-      <c r="L11">
-        <v>8</v>
-      </c>
-      <c r="M11" t="s">
-        <v>0</v>
+      <c r="M11">
+        <v>500</v>
       </c>
       <c r="N11">
-        <v>50</v>
-      </c>
-      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="O11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>50</v>
+      </c>
+      <c r="Q11">
         <v>19.420000000000002</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="3">
+      <c r="U11" s="3">
         <v>2.2410557176666554E-5</v>
       </c>
-      <c r="T11" s="3"/>
-      <c r="Y11" s="3" t="s">
+      <c r="V11" s="3"/>
+      <c r="AA11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AB11" s="3">
         <v>2.7701387259051026E-4</v>
       </c>
-      <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -16398,37 +16417,37 @@
       <c r="I12">
         <v>19.3</v>
       </c>
-      <c r="K12">
-        <v>500</v>
-      </c>
-      <c r="L12">
+      <c r="M12">
+        <v>500</v>
+      </c>
+      <c r="N12">
         <v>9</v>
       </c>
-      <c r="M12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>50</v>
-      </c>
-      <c r="O12">
+      <c r="O12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>50</v>
+      </c>
+      <c r="Q12">
         <v>19.77</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1.7396067260750732</v>
       </c>
-      <c r="T12" s="3"/>
-      <c r="Y12" s="3" t="s">
+      <c r="V12" s="3"/>
+      <c r="AA12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>1.7340636066175394</v>
       </c>
-      <c r="AA12" s="3"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AC12" s="3"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>8</v>
       </c>
@@ -16453,37 +16472,37 @@
       <c r="I13">
         <v>19.02</v>
       </c>
-      <c r="K13">
-        <v>500</v>
-      </c>
-      <c r="L13">
+      <c r="M13">
+        <v>500</v>
+      </c>
+      <c r="N13">
         <v>10</v>
       </c>
-      <c r="M13" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>50</v>
-      </c>
-      <c r="O13">
+      <c r="O13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>50</v>
+      </c>
+      <c r="Q13">
         <v>19.71</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S13" s="6">
+      <c r="U13" s="6">
         <v>4.4821114353333108E-5</v>
       </c>
-      <c r="T13" s="3"/>
-      <c r="Y13" s="3" t="s">
+      <c r="V13" s="3"/>
+      <c r="AA13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="AB13" s="6">
         <v>5.5402774518102053E-4</v>
       </c>
-      <c r="AA13" s="3"/>
-    </row>
-    <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC13" s="3"/>
+    </row>
+    <row r="14" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>8</v>
       </c>
@@ -16511,37 +16530,37 @@
       <c r="J14">
         <v>7.82</v>
       </c>
-      <c r="K14">
-        <v>500</v>
-      </c>
-      <c r="L14">
+      <c r="M14">
+        <v>500</v>
+      </c>
+      <c r="N14">
         <v>11</v>
       </c>
-      <c r="M14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>50</v>
-      </c>
-      <c r="O14">
+      <c r="O14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>50</v>
+      </c>
+      <c r="Q14">
         <v>19.690000000000001</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="T14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S14" s="4">
+      <c r="U14" s="4">
         <v>2.109815577833317</v>
       </c>
-      <c r="T14" s="4"/>
-      <c r="Y14" s="4" t="s">
+      <c r="V14" s="4"/>
+      <c r="AA14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="AB14" s="4">
         <v>2.1009220402410378</v>
       </c>
-      <c r="AA14" s="4"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AC14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>8</v>
       </c>
@@ -16569,30 +16588,30 @@
       <c r="J15">
         <v>7.82</v>
       </c>
-      <c r="K15">
-        <v>500</v>
-      </c>
-      <c r="L15">
+      <c r="M15">
+        <v>500</v>
+      </c>
+      <c r="N15">
         <v>12</v>
       </c>
-      <c r="M15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>50</v>
-      </c>
-      <c r="O15">
+      <c r="O15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>50</v>
+      </c>
+      <c r="Q15">
         <v>19.64</v>
       </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
       <c r="AA15" s="3"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>8</v>
       </c>
@@ -16620,31 +16639,31 @@
       <c r="J16">
         <v>7.89</v>
       </c>
-      <c r="K16">
-        <v>500</v>
-      </c>
-      <c r="L16">
+      <c r="M16">
+        <v>500</v>
+      </c>
+      <c r="N16">
         <v>13</v>
       </c>
-      <c r="M16" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>50</v>
-      </c>
-      <c r="O16">
+      <c r="O16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>50</v>
+      </c>
+      <c r="Q16">
         <v>19.739999999999998</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>8</v>
       </c>
@@ -16672,30 +16691,30 @@
       <c r="J17">
         <v>7.82</v>
       </c>
-      <c r="K17">
-        <v>500</v>
-      </c>
-      <c r="L17">
+      <c r="M17">
+        <v>500</v>
+      </c>
+      <c r="N17">
         <v>14</v>
       </c>
-      <c r="M17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>50</v>
-      </c>
-      <c r="O17">
+      <c r="O17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>50</v>
+      </c>
+      <c r="Q17">
         <v>19.62</v>
       </c>
-      <c r="R17" t="s">
+      <c r="T17" t="s">
         <v>19</v>
       </c>
-      <c r="U17" s="3"/>
-      <c r="Y17" t="s">
+      <c r="W17" s="3"/>
+      <c r="AA17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>8</v>
       </c>
@@ -16723,27 +16742,27 @@
       <c r="J18">
         <v>7.8</v>
       </c>
-      <c r="K18">
-        <v>500</v>
-      </c>
-      <c r="L18">
+      <c r="M18">
+        <v>500</v>
+      </c>
+      <c r="N18">
         <v>15</v>
       </c>
-      <c r="M18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>50</v>
-      </c>
-      <c r="O18">
+      <c r="O18" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>50</v>
+      </c>
+      <c r="Q18">
         <v>19.440000000000001</v>
       </c>
-      <c r="R18" t="s">
+      <c r="T18" t="s">
         <v>49</v>
       </c>
-      <c r="U18" s="3"/>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>8</v>
       </c>
@@ -16771,38 +16790,38 @@
       <c r="J19">
         <v>7.85</v>
       </c>
-      <c r="K19">
-        <v>500</v>
-      </c>
-      <c r="L19">
-        <v>16</v>
-      </c>
-      <c r="M19" t="s">
-        <v>0</v>
+      <c r="M19">
+        <v>500</v>
       </c>
       <c r="N19">
-        <v>50</v>
-      </c>
-      <c r="O19">
+        <v>16</v>
+      </c>
+      <c r="O19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>50</v>
+      </c>
+      <c r="Q19">
         <v>19.579999999999998</v>
       </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5" t="s">
+      <c r="T19" s="5"/>
+      <c r="U19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="V19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U19" s="3"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5" t="s">
+      <c r="W19" s="3"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA19" s="5" t="s">
+      <c r="AC19" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>8</v>
       </c>
@@ -16830,42 +16849,42 @@
       <c r="J20">
         <v>7.78</v>
       </c>
-      <c r="K20">
-        <v>500</v>
-      </c>
-      <c r="L20">
+      <c r="M20">
+        <v>500</v>
+      </c>
+      <c r="N20">
         <v>17</v>
       </c>
-      <c r="M20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>50</v>
-      </c>
-      <c r="O20">
+      <c r="O20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>50</v>
+      </c>
+      <c r="Q20">
         <v>19.68</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>18.997999999999994</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>19.642999999999997</v>
       </c>
-      <c r="U20" s="3"/>
-      <c r="Y20" s="3" t="s">
+      <c r="W20" s="3"/>
+      <c r="AA20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>19.094000000000001</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>19.642999999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>8</v>
       </c>
@@ -16893,43 +16912,43 @@
       <c r="J21">
         <v>7.73</v>
       </c>
-      <c r="K21">
-        <v>500</v>
-      </c>
-      <c r="L21">
+      <c r="M21">
+        <v>500</v>
+      </c>
+      <c r="N21">
         <v>18</v>
       </c>
-      <c r="M21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>50</v>
-      </c>
-      <c r="O21">
+      <c r="O21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>50</v>
+      </c>
+      <c r="Q21">
         <v>19.72</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>0.18847172413793115</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>4.7966551724137947E-2</v>
       </c>
-      <c r="U21" s="3"/>
-      <c r="Y21" s="3" t="s">
+      <c r="W21" s="3"/>
+      <c r="AA21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>0.14104551724137954</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>4.7966551724137947E-2</v>
       </c>
-      <c r="AB21" s="3"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AD21" s="3"/>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>8</v>
       </c>
@@ -16957,43 +16976,43 @@
       <c r="J22">
         <v>7.78</v>
       </c>
-      <c r="K22">
-        <v>500</v>
-      </c>
-      <c r="L22">
+      <c r="M22">
+        <v>500</v>
+      </c>
+      <c r="N22">
         <v>19</v>
       </c>
-      <c r="M22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>50</v>
-      </c>
-      <c r="O22">
+      <c r="O22" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>50</v>
+      </c>
+      <c r="Q22">
         <v>19.73</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>30</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>30</v>
       </c>
-      <c r="U22" s="3"/>
-      <c r="Y22" s="3" t="s">
+      <c r="W22" s="3"/>
+      <c r="AA22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>30</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>30</v>
       </c>
-      <c r="AB22" s="3"/>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AD22" s="3"/>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>8</v>
       </c>
@@ -17021,39 +17040,39 @@
       <c r="J23">
         <v>7.79</v>
       </c>
-      <c r="K23">
-        <v>500</v>
-      </c>
-      <c r="L23">
+      <c r="M23">
+        <v>500</v>
+      </c>
+      <c r="N23">
         <v>20</v>
       </c>
-      <c r="M23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>50</v>
-      </c>
-      <c r="O23">
+      <c r="O23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>50</v>
+      </c>
+      <c r="Q23">
         <v>19.62</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="Y23" s="3" t="s">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="AA23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>8</v>
       </c>
@@ -17081,39 +17100,39 @@
       <c r="J24">
         <v>7.86</v>
       </c>
-      <c r="K24">
-        <v>500</v>
-      </c>
-      <c r="L24">
+      <c r="M24">
+        <v>500</v>
+      </c>
+      <c r="N24">
         <v>21</v>
       </c>
-      <c r="M24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>50</v>
-      </c>
-      <c r="O24">
+      <c r="O24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>50</v>
+      </c>
+      <c r="Q24">
         <v>19.68</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>43</v>
       </c>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="Y24" s="3" t="s">
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="AA24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>47</v>
       </c>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>8</v>
       </c>
@@ -17141,39 +17160,39 @@
       <c r="J25">
         <v>7.85</v>
       </c>
-      <c r="K25">
-        <v>500</v>
-      </c>
-      <c r="L25">
+      <c r="M25">
+        <v>500</v>
+      </c>
+      <c r="N25">
         <v>22</v>
       </c>
-      <c r="M25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>50</v>
-      </c>
-      <c r="O25">
+      <c r="O25" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>50</v>
+      </c>
+      <c r="Q25">
         <v>19.72</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S25" s="6">
+      <c r="U25" s="6">
         <v>-7.2654321291349859</v>
       </c>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="Y25" s="3" t="s">
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="AA25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="AB25" s="6">
         <v>-6.9165290253340732</v>
       </c>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>8</v>
       </c>
@@ -17201,39 +17220,39 @@
       <c r="J26">
         <v>7.72</v>
       </c>
-      <c r="K26">
-        <v>500</v>
-      </c>
-      <c r="L26">
+      <c r="M26">
+        <v>500</v>
+      </c>
+      <c r="N26">
         <v>23</v>
       </c>
-      <c r="M26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>50</v>
-      </c>
-      <c r="O26">
+      <c r="O26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>50</v>
+      </c>
+      <c r="Q26">
         <v>19.329999999999998</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>2.6608590117332099E-9</v>
       </c>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="Y26" s="3" t="s">
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="AA26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>5.4701972016945046E-9</v>
       </c>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>8</v>
       </c>
@@ -17261,39 +17280,39 @@
       <c r="J27">
         <v>7.83</v>
       </c>
-      <c r="K27">
-        <v>500</v>
-      </c>
-      <c r="L27">
+      <c r="M27">
+        <v>500</v>
+      </c>
+      <c r="N27">
         <v>24</v>
       </c>
-      <c r="M27" t="s">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>50</v>
-      </c>
-      <c r="O27">
+      <c r="O27" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>50</v>
+      </c>
+      <c r="Q27">
         <v>19.86</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1.6810707032025196</v>
       </c>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="Y27" s="3" t="s">
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="AA27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>1.6779267216418625</v>
       </c>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>8</v>
       </c>
@@ -17321,39 +17340,39 @@
       <c r="J28">
         <v>7.83</v>
       </c>
-      <c r="K28">
-        <v>500</v>
-      </c>
-      <c r="L28">
+      <c r="M28">
+        <v>500</v>
+      </c>
+      <c r="N28">
         <v>25</v>
       </c>
-      <c r="M28" t="s">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>50</v>
-      </c>
-      <c r="O28">
+      <c r="O28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>50</v>
+      </c>
+      <c r="Q28">
         <v>19.920000000000002</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S28" s="6">
+      <c r="U28" s="6">
         <v>5.3217180234664199E-9</v>
       </c>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="Y28" s="3" t="s">
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="AA28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Z28" s="6">
+      <c r="AB28" s="6">
         <v>1.0940394403389009E-8</v>
       </c>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-    </row>
-    <row r="29" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+    </row>
+    <row r="29" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>8</v>
       </c>
@@ -17381,39 +17400,39 @@
       <c r="J29">
         <v>7.75</v>
       </c>
-      <c r="K29">
-        <v>500</v>
-      </c>
-      <c r="L29">
+      <c r="M29">
+        <v>500</v>
+      </c>
+      <c r="N29">
         <v>26</v>
       </c>
-      <c r="M29" t="s">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>50</v>
-      </c>
-      <c r="O29">
+      <c r="O29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>50</v>
+      </c>
+      <c r="Q29">
         <v>19.62</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="T29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S29" s="4">
+      <c r="U29" s="4">
         <v>2.0166921992278248</v>
       </c>
-      <c r="T29" s="4"/>
-      <c r="U29" s="3"/>
-      <c r="Y29" s="4" t="s">
+      <c r="V29" s="4"/>
+      <c r="W29" s="3"/>
+      <c r="AA29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z29" s="4">
+      <c r="AB29" s="4">
         <v>2.0117405137297668</v>
       </c>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="3"/>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="3"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>8</v>
       </c>
@@ -17441,29 +17460,29 @@
       <c r="J30">
         <v>7.77</v>
       </c>
-      <c r="K30">
-        <v>500</v>
-      </c>
-      <c r="L30">
+      <c r="M30">
+        <v>500</v>
+      </c>
+      <c r="N30">
         <v>27</v>
       </c>
-      <c r="M30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>50</v>
-      </c>
-      <c r="O30">
+      <c r="O30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>50</v>
+      </c>
+      <c r="Q30">
         <v>19.62</v>
       </c>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
       <c r="U30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
       <c r="AB30" s="3"/>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>8</v>
       </c>
@@ -17491,29 +17510,29 @@
       <c r="J31">
         <v>7.73</v>
       </c>
-      <c r="K31">
-        <v>500</v>
-      </c>
-      <c r="L31">
+      <c r="M31">
+        <v>500</v>
+      </c>
+      <c r="N31">
         <v>28</v>
       </c>
-      <c r="M31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>50</v>
-      </c>
-      <c r="O31">
+      <c r="O31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>50</v>
+      </c>
+      <c r="Q31">
         <v>19.489999999999998</v>
       </c>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
       <c r="U31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
       <c r="AB31" s="3"/>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>8</v>
       </c>
@@ -17541,29 +17560,29 @@
       <c r="J32">
         <v>7.73</v>
       </c>
-      <c r="K32">
-        <v>500</v>
-      </c>
-      <c r="L32">
+      <c r="M32">
+        <v>500</v>
+      </c>
+      <c r="N32">
         <v>29</v>
       </c>
-      <c r="M32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>50</v>
-      </c>
-      <c r="O32">
+      <c r="O32" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>50</v>
+      </c>
+      <c r="Q32">
         <v>19.23</v>
       </c>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
       <c r="U32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
       <c r="AB32" s="3"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>8</v>
       </c>
@@ -17591,29 +17610,29 @@
       <c r="J33">
         <v>7.86</v>
       </c>
-      <c r="K33">
-        <v>500</v>
-      </c>
-      <c r="L33">
+      <c r="M33">
+        <v>500</v>
+      </c>
+      <c r="N33">
         <v>30</v>
       </c>
-      <c r="M33" t="s">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>50</v>
-      </c>
-      <c r="O33">
+      <c r="O33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>50</v>
+      </c>
+      <c r="Q33">
         <v>19.809999999999999</v>
       </c>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
       <c r="U33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
       <c r="AB33" s="3"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>100</v>
       </c>
@@ -17638,14 +17657,14 @@
       <c r="H34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
       <c r="U34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
       <c r="AB34" s="3"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -17653,11 +17672,11 @@
       <c r="G35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -17689,7 +17708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>18</v>
       </c>
@@ -17718,7 +17737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>12</v>
       </c>
@@ -17750,7 +17769,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>16</v>
       </c>
@@ -17790,7 +17809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>16</v>
       </c>
@@ -17834,7 +17853,7 @@
         <v>19.655000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>16</v>
       </c>
@@ -17878,7 +17897,7 @@
         <v>9.6094444444444441E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>16</v>
       </c>
@@ -17922,7 +17941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>16</v>
       </c>
@@ -17962,7 +17981,7 @@
       </c>
       <c r="U43" s="3"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>16</v>
       </c>
@@ -18002,7 +18021,7 @@
       </c>
       <c r="U44" s="3"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>16</v>
       </c>
@@ -18042,7 +18061,7 @@
       </c>
       <c r="U45" s="3"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>16</v>
       </c>
@@ -18082,7 +18101,7 @@
       </c>
       <c r="U46" s="3"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>16</v>
       </c>
@@ -18122,7 +18141,7 @@
       </c>
       <c r="U47" s="3"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>16</v>
       </c>
@@ -30494,10 +30513,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882E8747-B785-4074-8834-EB967A4F9EAE}">
-  <dimension ref="A1:AB278"/>
+  <dimension ref="A1:AD278"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="X270" sqref="X270"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="P91" sqref="P91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30511,7 +30530,7 @@
     <col min="20" max="20" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -30536,35 +30555,35 @@
         <f>ROUND(STDEV(H4:H33), 2)</f>
         <v>72.760000000000005</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1">
-        <f>ROUND(AVERAGE(O4:O33), 2)</f>
+      <c r="P1" s="1">
+        <f>ROUND(AVERAGE(Q4:Q33), 2)</f>
         <v>705.41</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="Q1" s="1" t="str">
         <f>"+/-"</f>
         <v>+/-</v>
       </c>
-      <c r="P1" s="1">
-        <f>ROUND(STDEV(O4:O33), 2)</f>
+      <c r="R1" s="1">
+        <f>ROUND(STDEV(Q4:Q33), 2)</f>
         <v>25.13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -30586,14 +30605,14 @@
         <f>ROUND(STDEV(I4:I33), 2)</f>
         <v>70.86</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -30622,28 +30641,31 @@
         <v>99</v>
       </c>
       <c r="K3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>2</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>8</v>
       </c>
@@ -30668,37 +30690,37 @@
       <c r="I4">
         <v>672.26</v>
       </c>
-      <c r="K4">
-        <v>500</v>
-      </c>
-      <c r="L4">
+      <c r="M4">
+        <v>500</v>
+      </c>
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>13</v>
       </c>
-      <c r="N4">
-        <v>50</v>
-      </c>
-      <c r="O4">
+      <c r="P4">
+        <v>50</v>
+      </c>
+      <c r="Q4">
         <v>657.65</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5"/>
+      <c r="U4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5" t="s">
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>8</v>
       </c>
@@ -30723,41 +30745,41 @@
       <c r="I5">
         <v>689.59</v>
       </c>
-      <c r="K5">
-        <v>500</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
+        <v>500</v>
+      </c>
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>13</v>
       </c>
-      <c r="N5">
-        <v>50</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
+        <v>50</v>
+      </c>
+      <c r="Q5">
         <v>714</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="3">
+      <c r="U5" s="3">
         <v>665.03200000000004</v>
       </c>
-      <c r="T5" s="3">
+      <c r="V5" s="3">
         <v>704.899</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="AB5" s="3">
         <v>687.0440000000001</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AC5" s="3">
         <v>704.899</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>8</v>
       </c>
@@ -30782,41 +30804,41 @@
       <c r="I6">
         <v>677.32</v>
       </c>
-      <c r="K6">
-        <v>500</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
+        <v>500</v>
+      </c>
+      <c r="N6">
         <v>3</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>13</v>
       </c>
-      <c r="N6">
-        <v>50</v>
-      </c>
-      <c r="O6">
+      <c r="P6">
+        <v>50</v>
+      </c>
+      <c r="Q6">
         <v>677.48</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="3">
+      <c r="U6" s="3">
         <v>1790.7800622222223</v>
       </c>
-      <c r="T6" s="3">
+      <c r="V6" s="3">
         <v>814.80045444444522</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="AB6" s="3">
         <v>425.08304888888927</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AC6" s="3">
         <v>814.80045444444522</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>8</v>
       </c>
@@ -30841,41 +30863,41 @@
       <c r="I7">
         <v>675.28</v>
       </c>
-      <c r="K7">
-        <v>500</v>
-      </c>
-      <c r="L7">
+      <c r="M7">
+        <v>500</v>
+      </c>
+      <c r="N7">
         <v>4</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>13</v>
       </c>
-      <c r="N7">
-        <v>50</v>
-      </c>
-      <c r="O7">
+      <c r="P7">
+        <v>50</v>
+      </c>
+      <c r="Q7">
         <v>711.91</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="3">
+      <c r="U7" s="3">
         <v>10</v>
       </c>
-      <c r="T7" s="3">
+      <c r="V7" s="3">
         <v>10</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="AB7" s="3">
         <v>10</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AC7" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>8</v>
       </c>
@@ -30900,37 +30922,37 @@
       <c r="I8">
         <v>696.86</v>
       </c>
-      <c r="K8">
-        <v>500</v>
-      </c>
-      <c r="L8">
+      <c r="M8">
+        <v>500</v>
+      </c>
+      <c r="N8">
         <v>5</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>13</v>
       </c>
-      <c r="N8">
-        <v>50</v>
-      </c>
-      <c r="O8">
+      <c r="P8">
+        <v>50</v>
+      </c>
+      <c r="Q8">
         <v>730.71</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3"/>
-      <c r="Y8" s="3" t="s">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="AA8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>8</v>
       </c>
@@ -30955,37 +30977,37 @@
       <c r="I9">
         <v>696.79</v>
       </c>
-      <c r="K9">
-        <v>500</v>
-      </c>
-      <c r="L9">
+      <c r="M9">
+        <v>500</v>
+      </c>
+      <c r="N9">
         <v>6</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>13</v>
       </c>
-      <c r="N9">
-        <v>50</v>
-      </c>
-      <c r="O9">
+      <c r="P9">
+        <v>50</v>
+      </c>
+      <c r="Q9">
         <v>711.13</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="3">
-        <v>16</v>
-      </c>
-      <c r="T9" s="3"/>
-      <c r="Y9" s="3" t="s">
+      <c r="U9" s="3">
+        <v>16</v>
+      </c>
+      <c r="V9" s="3"/>
+      <c r="AA9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z9" s="3">
-        <v>16</v>
-      </c>
-      <c r="AA9" s="3"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB9" s="3">
+        <v>16</v>
+      </c>
+      <c r="AC9" s="3"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>8</v>
       </c>
@@ -31010,37 +31032,37 @@
       <c r="I10">
         <v>729.87</v>
       </c>
-      <c r="K10">
-        <v>500</v>
-      </c>
-      <c r="L10">
+      <c r="M10">
+        <v>500</v>
+      </c>
+      <c r="N10">
         <v>7</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>13</v>
       </c>
-      <c r="N10">
-        <v>50</v>
-      </c>
-      <c r="O10">
+      <c r="P10">
+        <v>50</v>
+      </c>
+      <c r="Q10">
         <v>723.98</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="6">
+      <c r="U10" s="6">
         <v>-2.4697972747947428</v>
       </c>
-      <c r="T10" s="3"/>
-      <c r="Y10" s="3" t="s">
+      <c r="V10" s="3"/>
+      <c r="AA10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="AB10" s="6">
         <v>-1.6035016592415954</v>
       </c>
-      <c r="AA10" s="3"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC10" s="3"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>8</v>
       </c>
@@ -31065,37 +31087,37 @@
       <c r="I11">
         <v>657.67</v>
       </c>
-      <c r="K11">
-        <v>500</v>
-      </c>
-      <c r="L11">
-        <v>8</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="M11">
+        <v>500</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11" t="s">
         <v>13</v>
       </c>
-      <c r="N11">
-        <v>50</v>
-      </c>
-      <c r="O11">
+      <c r="P11">
+        <v>50</v>
+      </c>
+      <c r="Q11">
         <v>741.95</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="3">
+      <c r="U11" s="3">
         <v>1.2577492344588607E-2</v>
       </c>
-      <c r="T11" s="3"/>
-      <c r="Y11" s="3" t="s">
+      <c r="V11" s="3"/>
+      <c r="AA11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AB11" s="3">
         <v>6.418949449970239E-2</v>
       </c>
-      <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -31120,37 +31142,37 @@
       <c r="I12">
         <v>702.88</v>
       </c>
-      <c r="K12">
-        <v>500</v>
-      </c>
-      <c r="L12">
+      <c r="M12">
+        <v>500</v>
+      </c>
+      <c r="N12">
         <v>9</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>13</v>
       </c>
-      <c r="N12">
-        <v>50</v>
-      </c>
-      <c r="O12">
+      <c r="P12">
+        <v>50</v>
+      </c>
+      <c r="Q12">
         <v>715.94</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1.7458836762762506</v>
       </c>
-      <c r="T12" s="3"/>
-      <c r="Y12" s="3" t="s">
+      <c r="V12" s="3"/>
+      <c r="AA12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>1.7458836762762506</v>
       </c>
-      <c r="AA12" s="3"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC12" s="3"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>8</v>
       </c>
@@ -31175,37 +31197,37 @@
       <c r="I13">
         <v>671.92</v>
       </c>
-      <c r="K13">
-        <v>500</v>
-      </c>
-      <c r="L13">
+      <c r="M13">
+        <v>500</v>
+      </c>
+      <c r="N13">
         <v>10</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>13</v>
       </c>
-      <c r="N13">
-        <v>50</v>
-      </c>
-      <c r="O13">
+      <c r="P13">
+        <v>50</v>
+      </c>
+      <c r="Q13">
         <v>664.24</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S13" s="6">
+      <c r="U13" s="6">
         <v>2.5154984689177214E-2</v>
       </c>
-      <c r="T13" s="3"/>
-      <c r="Y13" s="3" t="s">
+      <c r="V13" s="3"/>
+      <c r="AA13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="AB13" s="6">
         <v>0.12837898899940478</v>
       </c>
-      <c r="AA13" s="3"/>
-    </row>
-    <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC13" s="3"/>
+    </row>
+    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>8</v>
       </c>
@@ -31233,37 +31255,37 @@
       <c r="J14">
         <v>8.94</v>
       </c>
-      <c r="K14">
-        <v>500</v>
-      </c>
-      <c r="L14">
+      <c r="M14">
+        <v>500</v>
+      </c>
+      <c r="N14">
         <v>11</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>13</v>
       </c>
-      <c r="N14">
-        <v>50</v>
-      </c>
-      <c r="O14">
+      <c r="P14">
+        <v>50</v>
+      </c>
+      <c r="Q14">
         <v>709.73</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="T14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S14" s="4">
+      <c r="U14" s="4">
         <v>2.119905299221255</v>
       </c>
-      <c r="T14" s="4"/>
-      <c r="Y14" s="4" t="s">
+      <c r="V14" s="4"/>
+      <c r="AA14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="AB14" s="4">
         <v>2.119905299221255</v>
       </c>
-      <c r="AA14" s="4"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC14" s="4"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>8</v>
       </c>
@@ -31291,30 +31313,30 @@
       <c r="J15">
         <v>7.95</v>
       </c>
-      <c r="K15">
-        <v>500</v>
-      </c>
-      <c r="L15">
+      <c r="M15">
+        <v>500</v>
+      </c>
+      <c r="N15">
         <v>12</v>
       </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
         <v>13</v>
       </c>
-      <c r="N15">
-        <v>50</v>
-      </c>
-      <c r="O15">
+      <c r="P15">
+        <v>50</v>
+      </c>
+      <c r="Q15">
         <v>737.61</v>
       </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
       <c r="AA15" s="3"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>8</v>
       </c>
@@ -31342,34 +31364,34 @@
       <c r="J16">
         <v>7.76</v>
       </c>
-      <c r="K16">
-        <v>500</v>
-      </c>
-      <c r="L16">
+      <c r="M16">
+        <v>500</v>
+      </c>
+      <c r="N16">
         <v>13</v>
       </c>
-      <c r="M16" t="s">
+      <c r="O16" t="s">
         <v>13</v>
       </c>
-      <c r="N16">
-        <v>50</v>
-      </c>
-      <c r="O16">
+      <c r="P16">
+        <v>50</v>
+      </c>
+      <c r="Q16">
         <v>728.44</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="Y16" s="1" t="s">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="AA16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>8</v>
       </c>
@@ -31397,31 +31419,31 @@
       <c r="J17">
         <v>7.76</v>
       </c>
-      <c r="K17">
-        <v>500</v>
-      </c>
-      <c r="L17">
+      <c r="M17">
+        <v>500</v>
+      </c>
+      <c r="N17">
         <v>14</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>13</v>
       </c>
-      <c r="N17">
-        <v>50</v>
-      </c>
-      <c r="O17">
+      <c r="P17">
+        <v>50</v>
+      </c>
+      <c r="Q17">
         <v>707.41</v>
       </c>
-      <c r="R17" t="s">
+      <c r="T17" t="s">
         <v>19</v>
       </c>
-      <c r="U17" s="3"/>
-      <c r="Y17" t="s">
+      <c r="W17" s="3"/>
+      <c r="AA17" t="s">
         <v>19</v>
       </c>
-      <c r="AB17" s="3"/>
-    </row>
-    <row r="18" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AD17" s="3"/>
+    </row>
+    <row r="18" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>8</v>
       </c>
@@ -31449,31 +31471,31 @@
       <c r="J18">
         <v>8.82</v>
       </c>
-      <c r="K18">
-        <v>500</v>
-      </c>
-      <c r="L18">
+      <c r="M18">
+        <v>500</v>
+      </c>
+      <c r="N18">
         <v>15</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>13</v>
       </c>
-      <c r="N18">
-        <v>50</v>
-      </c>
-      <c r="O18">
+      <c r="P18">
+        <v>50</v>
+      </c>
+      <c r="Q18">
         <v>713.05</v>
       </c>
-      <c r="R18" t="s">
+      <c r="T18" t="s">
         <v>49</v>
       </c>
-      <c r="U18" s="3"/>
-      <c r="Y18" t="s">
+      <c r="W18" s="3"/>
+      <c r="AA18" t="s">
         <v>49</v>
       </c>
-      <c r="AB18" s="3"/>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AD18" s="3"/>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>8</v>
       </c>
@@ -31501,39 +31523,39 @@
       <c r="J19">
         <v>7.82</v>
       </c>
-      <c r="K19">
-        <v>500</v>
-      </c>
-      <c r="L19">
-        <v>16</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="M19">
+        <v>500</v>
+      </c>
+      <c r="N19">
+        <v>16</v>
+      </c>
+      <c r="O19" t="s">
         <v>13</v>
       </c>
-      <c r="N19">
-        <v>50</v>
-      </c>
-      <c r="O19">
+      <c r="P19">
+        <v>50</v>
+      </c>
+      <c r="Q19">
         <v>713.5</v>
       </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5" t="s">
+      <c r="T19" s="5"/>
+      <c r="U19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="V19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U19" s="3"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5" t="s">
+      <c r="W19" s="3"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA19" s="5" t="s">
+      <c r="AC19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>8</v>
       </c>
@@ -31561,43 +31583,43 @@
       <c r="J20">
         <v>7.9</v>
       </c>
-      <c r="K20">
-        <v>500</v>
-      </c>
-      <c r="L20">
+      <c r="M20">
+        <v>500</v>
+      </c>
+      <c r="N20">
         <v>17</v>
       </c>
-      <c r="M20" t="s">
+      <c r="O20" t="s">
         <v>13</v>
       </c>
-      <c r="N20">
-        <v>50</v>
-      </c>
-      <c r="O20">
+      <c r="P20">
+        <v>50</v>
+      </c>
+      <c r="Q20">
         <v>721.61</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>625.92733333333319</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>705.40566666666678</v>
       </c>
-      <c r="U20" s="3"/>
-      <c r="Y20" s="3" t="s">
+      <c r="W20" s="3"/>
+      <c r="AA20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>649.01266666666675</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>705.40566666666678</v>
       </c>
-      <c r="AB20" s="3"/>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AD20" s="3"/>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>8</v>
       </c>
@@ -31625,43 +31647,43 @@
       <c r="J21">
         <v>7.79</v>
       </c>
-      <c r="K21">
-        <v>500</v>
-      </c>
-      <c r="L21">
+      <c r="M21">
+        <v>500</v>
+      </c>
+      <c r="N21">
         <v>18</v>
       </c>
-      <c r="M21" t="s">
+      <c r="O21" t="s">
         <v>13</v>
       </c>
-      <c r="N21">
-        <v>50</v>
-      </c>
-      <c r="O21">
+      <c r="P21">
+        <v>50</v>
+      </c>
+      <c r="Q21">
         <v>717.41</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>5293.3987926438704</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>631.39254954022988</v>
       </c>
-      <c r="U21" s="3"/>
-      <c r="Y21" s="3" t="s">
+      <c r="W21" s="3"/>
+      <c r="AA21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>5020.4991098849805</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>631.39254954022988</v>
       </c>
-      <c r="AB21" s="3"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AD21" s="3"/>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>8</v>
       </c>
@@ -31689,43 +31711,43 @@
       <c r="J22">
         <v>7.76</v>
       </c>
-      <c r="K22">
-        <v>500</v>
-      </c>
-      <c r="L22">
+      <c r="M22">
+        <v>500</v>
+      </c>
+      <c r="N22">
         <v>19</v>
       </c>
-      <c r="M22" t="s">
+      <c r="O22" t="s">
         <v>13</v>
       </c>
-      <c r="N22">
-        <v>50</v>
-      </c>
-      <c r="O22">
+      <c r="P22">
+        <v>50</v>
+      </c>
+      <c r="Q22">
         <v>661.41</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>30</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>30</v>
       </c>
-      <c r="U22" s="3"/>
-      <c r="Y22" s="3" t="s">
+      <c r="W22" s="3"/>
+      <c r="AA22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>30</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>30</v>
       </c>
-      <c r="AB22" s="3"/>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AD22" s="3"/>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>8</v>
       </c>
@@ -31753,39 +31775,39 @@
       <c r="J23">
         <v>7.81</v>
       </c>
-      <c r="K23">
-        <v>500</v>
-      </c>
-      <c r="L23">
+      <c r="M23">
+        <v>500</v>
+      </c>
+      <c r="N23">
         <v>20</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>13</v>
       </c>
-      <c r="N23">
-        <v>50</v>
-      </c>
-      <c r="O23">
+      <c r="P23">
+        <v>50</v>
+      </c>
+      <c r="Q23">
         <v>720.45</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="Y23" s="3" t="s">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="AA23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>8</v>
       </c>
@@ -31813,39 +31835,39 @@
       <c r="J24">
         <v>7.83</v>
       </c>
-      <c r="K24">
-        <v>500</v>
-      </c>
-      <c r="L24">
+      <c r="M24">
+        <v>500</v>
+      </c>
+      <c r="N24">
         <v>21</v>
       </c>
-      <c r="M24" t="s">
+      <c r="O24" t="s">
         <v>13</v>
       </c>
-      <c r="N24">
-        <v>50</v>
-      </c>
-      <c r="O24">
+      <c r="P24">
+        <v>50</v>
+      </c>
+      <c r="Q24">
         <v>716.52</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>36</v>
       </c>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="Y24" s="3" t="s">
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="AA24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>36</v>
       </c>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>8</v>
       </c>
@@ -31873,39 +31895,39 @@
       <c r="J25">
         <v>7.74</v>
       </c>
-      <c r="K25">
-        <v>500</v>
-      </c>
-      <c r="L25">
+      <c r="M25">
+        <v>500</v>
+      </c>
+      <c r="N25">
         <v>22</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O25" t="s">
         <v>13</v>
       </c>
-      <c r="N25">
-        <v>50</v>
-      </c>
-      <c r="O25">
+      <c r="P25">
+        <v>50</v>
+      </c>
+      <c r="Q25">
         <v>734.91</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S25" s="6">
+      <c r="U25" s="6">
         <v>-5.6555239863410627</v>
       </c>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="Y25" s="3" t="s">
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="AA25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="AB25" s="6">
         <v>-4.1085531734819476</v>
       </c>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>8</v>
       </c>
@@ -31933,39 +31955,39 @@
       <c r="J26">
         <v>7.74</v>
       </c>
-      <c r="K26">
-        <v>500</v>
-      </c>
-      <c r="L26">
+      <c r="M26">
+        <v>500</v>
+      </c>
+      <c r="N26">
         <v>23</v>
       </c>
-      <c r="M26" t="s">
+      <c r="O26" t="s">
         <v>13</v>
       </c>
-      <c r="N26">
-        <v>50</v>
-      </c>
-      <c r="O26">
+      <c r="P26">
+        <v>50</v>
+      </c>
+      <c r="Q26">
         <v>659.5</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1.0032838660975027E-6</v>
       </c>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="Y26" s="3" t="s">
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="AA26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>1.0967510433019407E-4</v>
       </c>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>8</v>
       </c>
@@ -31993,39 +32015,39 @@
       <c r="J27">
         <v>7.76</v>
       </c>
-      <c r="K27">
-        <v>500</v>
-      </c>
-      <c r="L27">
+      <c r="M27">
+        <v>500</v>
+      </c>
+      <c r="N27">
         <v>24</v>
       </c>
-      <c r="M27" t="s">
+      <c r="O27" t="s">
         <v>13</v>
       </c>
-      <c r="N27">
-        <v>50</v>
-      </c>
-      <c r="O27">
+      <c r="P27">
+        <v>50</v>
+      </c>
+      <c r="Q27">
         <v>696.96</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1.6882977141168172</v>
       </c>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="Y27" s="3" t="s">
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="AA27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>1.6882977141168172</v>
       </c>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>8</v>
       </c>
@@ -32053,39 +32075,39 @@
       <c r="J28">
         <v>7.8</v>
       </c>
-      <c r="K28">
-        <v>500</v>
-      </c>
-      <c r="L28">
+      <c r="M28">
+        <v>500</v>
+      </c>
+      <c r="N28">
         <v>25</v>
       </c>
-      <c r="M28" t="s">
+      <c r="O28" t="s">
         <v>13</v>
       </c>
-      <c r="N28">
-        <v>50</v>
-      </c>
-      <c r="O28">
+      <c r="P28">
+        <v>50</v>
+      </c>
+      <c r="Q28">
         <v>688.36</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S28" s="6">
+      <c r="U28" s="6">
         <v>2.0065677321950054E-6</v>
       </c>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="Y28" s="3" t="s">
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="AA28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Z28" s="6">
+      <c r="AB28" s="6">
         <v>2.1935020866038814E-4</v>
       </c>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-    </row>
-    <row r="29" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+    </row>
+    <row r="29" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>8</v>
       </c>
@@ -32113,39 +32135,39 @@
       <c r="J29">
         <v>7.82</v>
       </c>
-      <c r="K29">
-        <v>500</v>
-      </c>
-      <c r="L29">
+      <c r="M29">
+        <v>500</v>
+      </c>
+      <c r="N29">
         <v>26</v>
       </c>
-      <c r="M29" t="s">
+      <c r="O29" t="s">
         <v>13</v>
       </c>
-      <c r="N29">
-        <v>50</v>
-      </c>
-      <c r="O29">
+      <c r="P29">
+        <v>50</v>
+      </c>
+      <c r="Q29">
         <v>712.68</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="T29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S29" s="4">
+      <c r="U29" s="4">
         <v>2.028094000980452</v>
       </c>
-      <c r="T29" s="4"/>
-      <c r="U29" s="3"/>
-      <c r="Y29" s="4" t="s">
+      <c r="V29" s="4"/>
+      <c r="W29" s="3"/>
+      <c r="AA29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z29" s="4">
+      <c r="AB29" s="4">
         <v>2.028094000980452</v>
       </c>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="3"/>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="3"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>8</v>
       </c>
@@ -32173,29 +32195,29 @@
       <c r="J30">
         <v>8.01</v>
       </c>
-      <c r="K30">
-        <v>500</v>
-      </c>
-      <c r="L30">
+      <c r="M30">
+        <v>500</v>
+      </c>
+      <c r="N30">
         <v>27</v>
       </c>
-      <c r="M30" t="s">
+      <c r="O30" t="s">
         <v>13</v>
       </c>
-      <c r="N30">
-        <v>50</v>
-      </c>
-      <c r="O30">
+      <c r="P30">
+        <v>50</v>
+      </c>
+      <c r="Q30">
         <v>690.28</v>
       </c>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
       <c r="U30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
       <c r="AB30" s="3"/>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>8</v>
       </c>
@@ -32223,29 +32245,29 @@
       <c r="J31">
         <v>8.7100000000000009</v>
       </c>
-      <c r="K31">
-        <v>500</v>
-      </c>
-      <c r="L31">
+      <c r="M31">
+        <v>500</v>
+      </c>
+      <c r="N31">
         <v>28</v>
       </c>
-      <c r="M31" t="s">
+      <c r="O31" t="s">
         <v>13</v>
       </c>
-      <c r="N31">
-        <v>50</v>
-      </c>
-      <c r="O31">
+      <c r="P31">
+        <v>50</v>
+      </c>
+      <c r="Q31">
         <v>718.15</v>
       </c>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
       <c r="U31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
       <c r="AB31" s="3"/>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>8</v>
       </c>
@@ -32273,29 +32295,29 @@
       <c r="J32">
         <v>7.79</v>
       </c>
-      <c r="K32">
-        <v>500</v>
-      </c>
-      <c r="L32">
+      <c r="M32">
+        <v>500</v>
+      </c>
+      <c r="N32">
         <v>29</v>
       </c>
-      <c r="M32" t="s">
+      <c r="O32" t="s">
         <v>13</v>
       </c>
-      <c r="N32">
-        <v>50</v>
-      </c>
-      <c r="O32">
+      <c r="P32">
+        <v>50</v>
+      </c>
+      <c r="Q32">
         <v>653.07000000000005</v>
       </c>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
       <c r="U32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
       <c r="AB32" s="3"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>8</v>
       </c>
@@ -32323,29 +32345,29 @@
       <c r="J33">
         <v>7.81</v>
       </c>
-      <c r="K33">
-        <v>500</v>
-      </c>
-      <c r="L33">
+      <c r="M33">
+        <v>500</v>
+      </c>
+      <c r="N33">
         <v>30</v>
       </c>
-      <c r="M33" t="s">
+      <c r="O33" t="s">
         <v>13</v>
       </c>
-      <c r="N33">
-        <v>50</v>
-      </c>
-      <c r="O33">
+      <c r="P33">
+        <v>50</v>
+      </c>
+      <c r="Q33">
         <v>712.13</v>
       </c>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
       <c r="U33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
       <c r="AB33" s="3"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>100</v>
       </c>
@@ -32377,7 +32399,7 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -32389,7 +32411,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -32421,7 +32443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>18</v>
       </c>
@@ -32450,7 +32472,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>12</v>
       </c>
@@ -32482,7 +32504,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>16</v>
       </c>
@@ -32522,7 +32544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>16</v>
       </c>
@@ -32566,7 +32588,7 @@
         <v>704.899</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>16</v>
       </c>
@@ -32610,7 +32632,7 @@
         <v>814.80045444444522</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>16</v>
       </c>
@@ -32654,7 +32676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>16</v>
       </c>
@@ -32694,7 +32716,7 @@
       </c>
       <c r="U43" s="3"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>16</v>
       </c>
@@ -32734,7 +32756,7 @@
       </c>
       <c r="U44" s="3"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>16</v>
       </c>
@@ -32774,7 +32796,7 @@
       </c>
       <c r="U45" s="3"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>16</v>
       </c>
@@ -32814,7 +32836,7 @@
       </c>
       <c r="U46" s="3"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>16</v>
       </c>
@@ -32854,7 +32876,7 @@
       </c>
       <c r="U47" s="3"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>16</v>
       </c>
@@ -45197,10 +45219,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7633DC96-B2E1-4312-955E-9A85A049DFCB}">
-  <dimension ref="A1:AB278"/>
+  <dimension ref="A1:AD278"/>
   <sheetViews>
-    <sheetView topLeftCell="A234" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q249" sqref="Q249:Q278"/>
+    <sheetView topLeftCell="B85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U101" sqref="U101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45213,7 +45235,7 @@
     <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -45238,35 +45260,35 @@
         <f>ROUND(STDEV(H4:H33), 2)</f>
         <v>46.38</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1">
-        <f>ROUND(AVERAGE(O4:O33), 2)</f>
+      <c r="P1" s="1">
+        <f>ROUND(AVERAGE(Q4:Q33), 2)</f>
         <v>520.08000000000004</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="Q1" s="1" t="str">
         <f>"+/-"</f>
         <v>+/-</v>
       </c>
-      <c r="P1" s="1">
-        <f>ROUND(STDEV(O4:O33), 2)</f>
+      <c r="R1" s="1">
+        <f>ROUND(STDEV(Q4:Q33), 2)</f>
         <v>13.92</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -45288,11 +45310,11 @@
         <f>ROUND(STDEV(I4:I33), 2)</f>
         <v>56.74</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -45321,22 +45343,25 @@
         <v>99</v>
       </c>
       <c r="K3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>8</v>
       </c>
@@ -45364,33 +45389,33 @@
       <c r="J4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K4">
-        <v>500</v>
-      </c>
-      <c r="L4">
+      <c r="M4">
+        <v>500</v>
+      </c>
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4">
-        <v>50</v>
-      </c>
-      <c r="O4">
+      <c r="O4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4">
+        <v>50</v>
+      </c>
+      <c r="Q4">
         <v>523.75</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5"/>
+      <c r="U4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>8</v>
       </c>
@@ -45418,35 +45443,35 @@
       <c r="J5">
         <v>7.79</v>
       </c>
-      <c r="K5">
-        <v>500</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
+        <v>500</v>
+      </c>
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="M5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5">
-        <v>50</v>
-      </c>
-      <c r="O5">
+      <c r="O5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5">
+        <v>50</v>
+      </c>
+      <c r="Q5">
         <v>519.79</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="3">
+      <c r="U5" s="3">
         <v>473.7503333333334</v>
       </c>
-      <c r="T5" s="3">
+      <c r="V5" s="3">
         <v>520.07766666666669</v>
       </c>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="6"/>
       <c r="AA5" s="3"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="3"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>8</v>
       </c>
@@ -45474,32 +45499,32 @@
       <c r="J6">
         <v>7.71</v>
       </c>
-      <c r="K6">
-        <v>500</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
+        <v>500</v>
+      </c>
+      <c r="N6">
         <v>3</v>
       </c>
-      <c r="M6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6">
-        <v>50</v>
-      </c>
-      <c r="O6">
+      <c r="O6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6">
+        <v>50</v>
+      </c>
+      <c r="Q6">
         <v>537.51</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="3">
+      <c r="U6" s="3">
         <v>2150.8661067816097</v>
       </c>
-      <c r="T6" s="3">
+      <c r="V6" s="3">
         <v>193.7549357471263</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>8</v>
       </c>
@@ -45527,32 +45552,32 @@
       <c r="J7">
         <v>7.78</v>
       </c>
-      <c r="K7">
-        <v>500</v>
-      </c>
-      <c r="L7">
+      <c r="M7">
+        <v>500</v>
+      </c>
+      <c r="N7">
         <v>4</v>
       </c>
-      <c r="M7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7">
-        <v>50</v>
-      </c>
-      <c r="O7">
+      <c r="O7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7">
+        <v>50</v>
+      </c>
+      <c r="Q7">
         <v>493.81</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="3">
+      <c r="U7" s="3">
         <v>30</v>
       </c>
-      <c r="T7" s="3">
+      <c r="V7" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>8</v>
       </c>
@@ -45580,30 +45605,30 @@
       <c r="J8">
         <v>8.89</v>
       </c>
-      <c r="K8">
-        <v>500</v>
-      </c>
-      <c r="L8">
+      <c r="M8">
+        <v>500</v>
+      </c>
+      <c r="N8">
         <v>5</v>
       </c>
-      <c r="M8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8">
-        <v>50</v>
-      </c>
-      <c r="O8">
+      <c r="O8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8">
+        <v>50</v>
+      </c>
+      <c r="Q8">
         <v>527.25</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>8</v>
       </c>
@@ -45631,30 +45656,30 @@
       <c r="J9">
         <v>7.85</v>
       </c>
-      <c r="K9">
-        <v>500</v>
-      </c>
-      <c r="L9">
+      <c r="M9">
+        <v>500</v>
+      </c>
+      <c r="N9">
         <v>6</v>
       </c>
-      <c r="M9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9">
-        <v>50</v>
-      </c>
-      <c r="O9">
+      <c r="O9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9">
+        <v>50</v>
+      </c>
+      <c r="Q9">
         <v>522.64</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>34</v>
       </c>
-      <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>8</v>
       </c>
@@ -45682,33 +45707,33 @@
       <c r="J10">
         <v>7.8</v>
       </c>
-      <c r="K10">
-        <v>500</v>
-      </c>
-      <c r="L10">
+      <c r="M10">
+        <v>500</v>
+      </c>
+      <c r="N10">
         <v>7</v>
       </c>
-      <c r="M10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10">
-        <v>50</v>
-      </c>
-      <c r="O10">
+      <c r="O10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10">
+        <v>50</v>
+      </c>
+      <c r="Q10">
         <v>521.34</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="6">
+      <c r="U10" s="6">
         <v>-5.2403657617694908</v>
       </c>
-      <c r="T10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
+      <c r="V10" s="3"/>
       <c r="AA10" s="3"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>8</v>
       </c>
@@ -45736,33 +45761,33 @@
       <c r="J11">
         <v>7.74</v>
       </c>
-      <c r="K11">
-        <v>500</v>
-      </c>
-      <c r="L11">
-        <v>8</v>
-      </c>
-      <c r="M11" t="s">
-        <v>50</v>
+      <c r="M11">
+        <v>500</v>
       </c>
       <c r="N11">
-        <v>50</v>
-      </c>
-      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="O11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11">
+        <v>50</v>
+      </c>
+      <c r="Q11">
         <v>537.66999999999996</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="3">
+      <c r="U11" s="3">
         <v>4.187252602912719E-6</v>
       </c>
-      <c r="T11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
+      <c r="V11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -45790,33 +45815,33 @@
       <c r="J12">
         <v>7.82</v>
       </c>
-      <c r="K12">
-        <v>500</v>
-      </c>
-      <c r="L12">
+      <c r="M12">
+        <v>500</v>
+      </c>
+      <c r="N12">
         <v>9</v>
       </c>
-      <c r="M12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12">
-        <v>50</v>
-      </c>
-      <c r="O12">
+      <c r="O12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12">
+        <v>50</v>
+      </c>
+      <c r="Q12">
         <v>526.32000000000005</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1.6909242551868542</v>
       </c>
-      <c r="T12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
+      <c r="V12" s="3"/>
       <c r="AA12" s="3"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>8</v>
       </c>
@@ -45844,30 +45869,30 @@
       <c r="J13">
         <v>7.78</v>
       </c>
-      <c r="K13">
-        <v>500</v>
-      </c>
-      <c r="L13">
+      <c r="M13">
+        <v>500</v>
+      </c>
+      <c r="N13">
         <v>10</v>
       </c>
-      <c r="M13" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13">
-        <v>50</v>
-      </c>
-      <c r="O13">
+      <c r="O13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13">
+        <v>50</v>
+      </c>
+      <c r="Q13">
         <v>524.86</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S13" s="6">
+      <c r="U13" s="6">
         <v>8.374505205825438E-6</v>
       </c>
-      <c r="T13" s="3"/>
-    </row>
-    <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>8</v>
       </c>
@@ -45895,30 +45920,30 @@
       <c r="J14">
         <v>7.8</v>
       </c>
-      <c r="K14">
-        <v>500</v>
-      </c>
-      <c r="L14">
+      <c r="M14">
+        <v>500</v>
+      </c>
+      <c r="N14">
         <v>11</v>
       </c>
-      <c r="M14" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14">
-        <v>50</v>
-      </c>
-      <c r="O14">
+      <c r="O14" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14">
+        <v>50</v>
+      </c>
+      <c r="Q14">
         <v>519.87</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="T14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S14" s="35">
+      <c r="U14" s="35">
         <v>2.0322445093177191</v>
       </c>
-      <c r="T14" s="4"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>8</v>
       </c>
@@ -45946,23 +45971,23 @@
       <c r="J15">
         <v>9.09</v>
       </c>
-      <c r="K15">
-        <v>500</v>
-      </c>
-      <c r="L15">
+      <c r="M15">
+        <v>500</v>
+      </c>
+      <c r="N15">
         <v>12</v>
       </c>
-      <c r="M15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15">
-        <v>50</v>
-      </c>
-      <c r="O15">
+      <c r="O15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15">
+        <v>50</v>
+      </c>
+      <c r="Q15">
         <v>538.36</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>8</v>
       </c>
@@ -45990,34 +46015,34 @@
       <c r="J16">
         <v>7.76</v>
       </c>
-      <c r="K16">
-        <v>500</v>
-      </c>
-      <c r="L16">
+      <c r="M16">
+        <v>500</v>
+      </c>
+      <c r="N16">
         <v>13</v>
       </c>
-      <c r="M16" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16">
-        <v>50</v>
-      </c>
-      <c r="O16">
+      <c r="O16" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16">
+        <v>50</v>
+      </c>
+      <c r="Q16">
         <v>547.66999999999996</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="Y16" s="1" t="s">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="AA16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>8</v>
       </c>
@@ -46045,31 +46070,31 @@
       <c r="J17">
         <v>7.75</v>
       </c>
-      <c r="K17">
-        <v>500</v>
-      </c>
-      <c r="L17">
+      <c r="M17">
+        <v>500</v>
+      </c>
+      <c r="N17">
         <v>14</v>
       </c>
-      <c r="M17" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17">
-        <v>50</v>
-      </c>
-      <c r="O17">
+      <c r="O17" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17">
+        <v>50</v>
+      </c>
+      <c r="Q17">
         <v>513.29</v>
       </c>
-      <c r="R17" t="s">
+      <c r="T17" t="s">
         <v>19</v>
       </c>
-      <c r="U17" s="3"/>
-      <c r="Y17" t="s">
+      <c r="W17" s="3"/>
+      <c r="AA17" t="s">
         <v>19</v>
       </c>
-      <c r="AB17" s="3"/>
-    </row>
-    <row r="18" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AD17" s="3"/>
+    </row>
+    <row r="18" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>8</v>
       </c>
@@ -46097,31 +46122,25 @@
       <c r="J18">
         <v>7.78</v>
       </c>
-      <c r="K18">
-        <v>500</v>
-      </c>
-      <c r="L18">
+      <c r="M18">
+        <v>500</v>
+      </c>
+      <c r="N18">
         <v>15</v>
       </c>
-      <c r="M18" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18">
-        <v>50</v>
-      </c>
-      <c r="O18">
+      <c r="O18" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18">
+        <v>50</v>
+      </c>
+      <c r="Q18">
         <v>489.8</v>
       </c>
-      <c r="R18" t="s">
-        <v>49</v>
-      </c>
-      <c r="U18" s="3"/>
-      <c r="Y18" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB18" s="3"/>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="W18" s="3"/>
+      <c r="AD18" s="3"/>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>8</v>
       </c>
@@ -46149,31 +46168,39 @@
       <c r="J19">
         <v>7.73</v>
       </c>
-      <c r="K19">
-        <v>500</v>
-      </c>
-      <c r="L19">
-        <v>16</v>
-      </c>
-      <c r="M19" t="s">
-        <v>50</v>
+      <c r="M19">
+        <v>500</v>
       </c>
       <c r="N19">
-        <v>50</v>
-      </c>
-      <c r="O19">
+        <v>16</v>
+      </c>
+      <c r="O19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19">
+        <v>50</v>
+      </c>
+      <c r="Q19">
         <v>514.75</v>
       </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="3"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
+      <c r="U19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W19" s="3"/>
       <c r="AA19" s="5"/>
-      <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AB19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>8</v>
       </c>
@@ -46201,31 +46228,43 @@
       <c r="J20">
         <v>7.8</v>
       </c>
-      <c r="K20">
-        <v>500</v>
-      </c>
-      <c r="L20">
+      <c r="M20">
+        <v>500</v>
+      </c>
+      <c r="N20">
         <v>17</v>
       </c>
-      <c r="M20" t="s">
-        <v>50</v>
-      </c>
-      <c r="N20">
-        <v>50</v>
-      </c>
-      <c r="O20">
+      <c r="O20" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20">
+        <v>50</v>
+      </c>
+      <c r="Q20">
         <v>526.21</v>
       </c>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="T20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U20" s="3">
+        <v>473.7503333333334</v>
+      </c>
+      <c r="V20" s="3">
+        <v>520.07766666666669</v>
+      </c>
+      <c r="W20" s="3"/>
+      <c r="AA20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>461.72999999999996</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>520.07766666666669</v>
+      </c>
+      <c r="AD20" s="3"/>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>8</v>
       </c>
@@ -46253,31 +46292,43 @@
       <c r="J21">
         <v>7.79</v>
       </c>
-      <c r="K21">
-        <v>500</v>
-      </c>
-      <c r="L21">
+      <c r="M21">
+        <v>500</v>
+      </c>
+      <c r="N21">
         <v>18</v>
       </c>
-      <c r="M21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N21">
-        <v>50</v>
-      </c>
-      <c r="O21">
+      <c r="O21" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21">
+        <v>50</v>
+      </c>
+      <c r="Q21">
         <v>527.89</v>
       </c>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="T21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U21" s="3">
+        <v>2150.8661067816097</v>
+      </c>
+      <c r="V21" s="3">
+        <v>193.7549357471263</v>
+      </c>
+      <c r="W21" s="3"/>
+      <c r="AA21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>3219.3879724138192</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>193.7549357471263</v>
+      </c>
+      <c r="AD21" s="3"/>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>8</v>
       </c>
@@ -46305,31 +46356,43 @@
       <c r="J22">
         <v>7.76</v>
       </c>
-      <c r="K22">
-        <v>500</v>
-      </c>
-      <c r="L22">
+      <c r="M22">
+        <v>500</v>
+      </c>
+      <c r="N22">
         <v>19</v>
       </c>
-      <c r="M22" t="s">
-        <v>50</v>
-      </c>
-      <c r="N22">
-        <v>50</v>
-      </c>
-      <c r="O22">
+      <c r="O22" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22">
+        <v>50</v>
+      </c>
+      <c r="Q22">
         <v>511.92</v>
       </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="T22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" s="3">
+        <v>30</v>
+      </c>
+      <c r="V22" s="3">
+        <v>30</v>
+      </c>
+      <c r="W22" s="3"/>
+      <c r="AA22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>30</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>30</v>
+      </c>
+      <c r="AD22" s="3"/>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>8</v>
       </c>
@@ -46357,31 +46420,39 @@
       <c r="J23">
         <v>7.73</v>
       </c>
-      <c r="K23">
-        <v>500</v>
-      </c>
-      <c r="L23">
+      <c r="M23">
+        <v>500</v>
+      </c>
+      <c r="N23">
         <v>20</v>
       </c>
-      <c r="M23" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23">
-        <v>50</v>
-      </c>
-      <c r="O23">
+      <c r="O23" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23">
+        <v>50</v>
+      </c>
+      <c r="Q23">
         <v>508.93</v>
       </c>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="T23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="AA23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>8</v>
       </c>
@@ -46409,31 +46480,39 @@
       <c r="J24">
         <v>7.78</v>
       </c>
-      <c r="K24">
-        <v>500</v>
-      </c>
-      <c r="L24">
+      <c r="M24">
+        <v>500</v>
+      </c>
+      <c r="N24">
         <v>21</v>
       </c>
-      <c r="M24" t="s">
-        <v>50</v>
-      </c>
-      <c r="N24">
-        <v>50</v>
-      </c>
-      <c r="O24">
+      <c r="O24" t="s">
+        <v>50</v>
+      </c>
+      <c r="P24">
+        <v>50</v>
+      </c>
+      <c r="Q24">
         <v>522.23</v>
       </c>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="T24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U24" s="3">
+        <v>34</v>
+      </c>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="AA24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>32</v>
+      </c>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>8</v>
       </c>
@@ -46461,31 +46540,39 @@
       <c r="J25">
         <v>7.78</v>
       </c>
-      <c r="K25">
-        <v>500</v>
-      </c>
-      <c r="L25">
+      <c r="M25">
+        <v>500</v>
+      </c>
+      <c r="N25">
         <v>22</v>
       </c>
-      <c r="M25" t="s">
-        <v>50</v>
-      </c>
-      <c r="N25">
-        <v>50</v>
-      </c>
-      <c r="O25">
+      <c r="O25" t="s">
+        <v>50</v>
+      </c>
+      <c r="P25">
+        <v>50</v>
+      </c>
+      <c r="Q25">
         <v>522.45000000000005</v>
       </c>
-      <c r="R25" s="3"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="T25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U25" s="6">
+        <v>-5.2403657617694908</v>
+      </c>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="AA25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB25" s="6">
+        <v>-5.4702463408883713</v>
+      </c>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>8</v>
       </c>
@@ -46513,31 +46600,39 @@
       <c r="J26">
         <v>7.82</v>
       </c>
-      <c r="K26">
-        <v>500</v>
-      </c>
-      <c r="L26">
+      <c r="M26">
+        <v>500</v>
+      </c>
+      <c r="N26">
         <v>23</v>
       </c>
-      <c r="M26" t="s">
-        <v>50</v>
-      </c>
-      <c r="N26">
-        <v>50</v>
-      </c>
-      <c r="O26">
+      <c r="O26" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26">
+        <v>50</v>
+      </c>
+      <c r="Q26">
         <v>504.04</v>
       </c>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="T26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U26" s="3">
+        <v>4.187252602912719E-6</v>
+      </c>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="AA26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>2.5280838187260918E-6</v>
+      </c>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>8</v>
       </c>
@@ -46565,31 +46660,39 @@
       <c r="J27">
         <v>7.79</v>
       </c>
-      <c r="K27">
-        <v>500</v>
-      </c>
-      <c r="L27">
+      <c r="M27">
+        <v>500</v>
+      </c>
+      <c r="N27">
         <v>24</v>
       </c>
-      <c r="M27" t="s">
-        <v>50</v>
-      </c>
-      <c r="N27">
-        <v>50</v>
-      </c>
-      <c r="O27">
+      <c r="O27" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27">
+        <v>50</v>
+      </c>
+      <c r="Q27">
         <v>498.31</v>
       </c>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="T27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U27" s="3">
+        <v>1.6909242551868542</v>
+      </c>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="AA27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>1.6938887483837093</v>
+      </c>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>8</v>
       </c>
@@ -46617,31 +46720,39 @@
       <c r="J28">
         <v>7.73</v>
       </c>
-      <c r="K28">
-        <v>500</v>
-      </c>
-      <c r="L28">
+      <c r="M28">
+        <v>500</v>
+      </c>
+      <c r="N28">
         <v>25</v>
       </c>
-      <c r="M28" t="s">
-        <v>50</v>
-      </c>
-      <c r="N28">
-        <v>50</v>
-      </c>
-      <c r="O28">
+      <c r="O28" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28">
+        <v>50</v>
+      </c>
+      <c r="Q28">
         <v>508.64</v>
       </c>
-      <c r="R28" s="3"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-    </row>
-    <row r="29" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U28" s="6">
+        <v>8.374505205825438E-6</v>
+      </c>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="AA28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB28" s="6">
+        <v>5.0561676374521837E-6</v>
+      </c>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+    </row>
+    <row r="29" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>8</v>
       </c>
@@ -46669,31 +46780,39 @@
       <c r="J29">
         <v>7.82</v>
       </c>
-      <c r="K29">
-        <v>500</v>
-      </c>
-      <c r="L29">
+      <c r="M29">
+        <v>500</v>
+      </c>
+      <c r="N29">
         <v>26</v>
       </c>
-      <c r="M29" t="s">
-        <v>50</v>
-      </c>
-      <c r="N29">
-        <v>50</v>
-      </c>
-      <c r="O29">
+      <c r="O29" t="s">
+        <v>50</v>
+      </c>
+      <c r="P29">
+        <v>50</v>
+      </c>
+      <c r="Q29">
         <v>517.25</v>
       </c>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="3"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="3"/>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="T29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U29" s="4">
+        <v>2.0322445093177191</v>
+      </c>
+      <c r="V29" s="4"/>
+      <c r="W29" s="3"/>
+      <c r="AA29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>2.0369333434601011</v>
+      </c>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="3"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>8</v>
       </c>
@@ -46721,29 +46840,29 @@
       <c r="J30">
         <v>7.76</v>
       </c>
-      <c r="K30">
-        <v>500</v>
-      </c>
-      <c r="L30">
+      <c r="M30">
+        <v>500</v>
+      </c>
+      <c r="N30">
         <v>27</v>
       </c>
-      <c r="M30" t="s">
-        <v>50</v>
-      </c>
-      <c r="N30">
-        <v>50</v>
-      </c>
-      <c r="O30">
+      <c r="O30" t="s">
+        <v>50</v>
+      </c>
+      <c r="P30">
+        <v>50</v>
+      </c>
+      <c r="Q30">
         <v>545.66999999999996</v>
       </c>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
       <c r="U30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
       <c r="AB30" s="3"/>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>8</v>
       </c>
@@ -46771,29 +46890,29 @@
       <c r="J31">
         <v>7.86</v>
       </c>
-      <c r="K31">
-        <v>500</v>
-      </c>
-      <c r="L31">
+      <c r="M31">
+        <v>500</v>
+      </c>
+      <c r="N31">
         <v>28</v>
       </c>
-      <c r="M31" t="s">
-        <v>50</v>
-      </c>
-      <c r="N31">
-        <v>50</v>
-      </c>
-      <c r="O31">
+      <c r="O31" t="s">
+        <v>50</v>
+      </c>
+      <c r="P31">
+        <v>50</v>
+      </c>
+      <c r="Q31">
         <v>504.59</v>
       </c>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
       <c r="U31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
       <c r="AB31" s="3"/>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>8</v>
       </c>
@@ -46821,29 +46940,29 @@
       <c r="J32">
         <v>7.77</v>
       </c>
-      <c r="K32">
-        <v>500</v>
-      </c>
-      <c r="L32">
+      <c r="M32">
+        <v>500</v>
+      </c>
+      <c r="N32">
         <v>29</v>
       </c>
-      <c r="M32" t="s">
-        <v>50</v>
-      </c>
-      <c r="N32">
-        <v>50</v>
-      </c>
-      <c r="O32">
+      <c r="O32" t="s">
+        <v>50</v>
+      </c>
+      <c r="P32">
+        <v>50</v>
+      </c>
+      <c r="Q32">
         <v>520.03</v>
       </c>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
       <c r="U32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
       <c r="AB32" s="3"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>8</v>
       </c>
@@ -46871,29 +46990,29 @@
       <c r="J33">
         <v>7.86</v>
       </c>
-      <c r="K33">
-        <v>500</v>
-      </c>
-      <c r="L33">
+      <c r="M33">
+        <v>500</v>
+      </c>
+      <c r="N33">
         <v>30</v>
       </c>
-      <c r="M33" t="s">
-        <v>50</v>
-      </c>
-      <c r="N33">
-        <v>50</v>
-      </c>
-      <c r="O33">
+      <c r="O33" t="s">
+        <v>50</v>
+      </c>
+      <c r="P33">
+        <v>50</v>
+      </c>
+      <c r="Q33">
         <v>525.49</v>
       </c>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
       <c r="U33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
       <c r="AB33" s="3"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>100</v>
       </c>
@@ -46918,14 +47037,14 @@
       <c r="H34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
       <c r="U34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
       <c r="AB34" s="3"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -46933,11 +47052,11 @@
       <c r="G35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -46962,14 +47081,14 @@
         <f>ROUND(STDEV(H39:H68), 2)</f>
         <v>35.229999999999997</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>18</v>
       </c>
@@ -46992,7 +47111,7 @@
         <v>35.85</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>12</v>
       </c>
@@ -47021,7 +47140,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>16</v>
       </c>
@@ -47053,7 +47172,7 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>16</v>
       </c>
@@ -47085,7 +47204,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>16</v>
       </c>
@@ -47117,7 +47236,7 @@
       <c r="T41" s="6"/>
       <c r="U41" s="3"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>16</v>
       </c>
@@ -47146,7 +47265,7 @@
       <c r="M42" s="6"/>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>16</v>
       </c>
@@ -47175,7 +47294,7 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>16</v>
       </c>
@@ -47201,7 +47320,7 @@
         <v>513.53</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>16</v>
       </c>
@@ -47227,7 +47346,7 @@
         <v>511.21</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>16</v>
       </c>
@@ -47253,7 +47372,7 @@
         <v>460.05</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>16</v>
       </c>
@@ -47282,7 +47401,7 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>16</v>
       </c>
@@ -47464,13 +47583,7 @@
       <c r="I53">
         <v>458.5</v>
       </c>
-      <c r="L53" t="s">
-        <v>49</v>
-      </c>
       <c r="O53" s="3"/>
-      <c r="S53" t="s">
-        <v>49</v>
-      </c>
       <c r="V53" s="3"/>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.35">
@@ -47499,12 +47612,20 @@
         <v>452.69</v>
       </c>
       <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
+      <c r="M54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="O54" s="3"/>
       <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
+      <c r="T54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U54" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="V54" s="3"/>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.35">
@@ -47532,13 +47653,25 @@
       <c r="I55">
         <v>506.13</v>
       </c>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
+      <c r="L55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M55" s="3">
+        <v>496.61566666666664</v>
+      </c>
+      <c r="N55" s="3">
+        <v>520.07766666666669</v>
+      </c>
       <c r="O55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
+      <c r="S55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T55" s="3">
+        <v>487.45600000000002</v>
+      </c>
+      <c r="U55" s="3">
+        <v>520.07766666666669</v>
+      </c>
       <c r="V55" s="3"/>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.35">
@@ -47566,13 +47699,25 @@
       <c r="I56">
         <v>504.35</v>
       </c>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
+      <c r="L56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="3">
+        <v>1240.9430047126436</v>
+      </c>
+      <c r="N56" s="3">
+        <v>193.7549357471263</v>
+      </c>
       <c r="O56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
+      <c r="S56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T56" s="3">
+        <v>1285.1014662068965</v>
+      </c>
+      <c r="U56" s="3">
+        <v>193.7549357471263</v>
+      </c>
       <c r="V56" s="3"/>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.35">
@@ -47600,13 +47745,25 @@
       <c r="I57">
         <v>528.98</v>
       </c>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
+      <c r="L57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M57" s="3">
+        <v>30</v>
+      </c>
+      <c r="N57" s="3">
+        <v>30</v>
+      </c>
       <c r="O57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
+      <c r="S57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T57" s="3">
+        <v>30</v>
+      </c>
+      <c r="U57" s="3">
+        <v>30</v>
+      </c>
       <c r="V57" s="3"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.35">
@@ -47634,12 +47791,20 @@
       <c r="I58">
         <v>418.54</v>
       </c>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
+      <c r="L58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
+      <c r="S58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
     </row>
@@ -47668,12 +47833,20 @@
       <c r="I59">
         <v>497.49</v>
       </c>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
+      <c r="L59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" s="3">
+        <v>38</v>
+      </c>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
+      <c r="S59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T59" s="3">
+        <v>38</v>
+      </c>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
     </row>
@@ -47702,12 +47875,20 @@
       <c r="I60">
         <v>518.86</v>
       </c>
-      <c r="L60" s="3"/>
-      <c r="M60" s="6"/>
+      <c r="L60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M60" s="6">
+        <v>-3.3926996999482273</v>
+      </c>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="6"/>
+      <c r="S60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T60" s="6">
+        <v>-4.6462627964594239</v>
+      </c>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
     </row>
@@ -47736,12 +47917,20 @@
       <c r="I61">
         <v>508.13</v>
       </c>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
+      <c r="L61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M61" s="3">
+        <v>8.1472371670675281E-4</v>
+      </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
+      <c r="S61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T61" s="3">
+        <v>1.9911481576418083E-5</v>
+      </c>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
     </row>
@@ -47770,12 +47959,20 @@
       <c r="I62">
         <v>482.56</v>
       </c>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
+      <c r="L62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="3">
+        <v>1.6859544601667387</v>
+      </c>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
+      <c r="S62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T62" s="3">
+        <v>1.6859544601667387</v>
+      </c>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
     </row>
@@ -47804,12 +48001,20 @@
       <c r="I63">
         <v>443.03</v>
       </c>
-      <c r="L63" s="3"/>
-      <c r="M63" s="6"/>
+      <c r="L63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M63" s="6">
+        <v>1.6294474334135056E-3</v>
+      </c>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="6"/>
+      <c r="S63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T63" s="6">
+        <v>3.9822963152836165E-5</v>
+      </c>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
     </row>
@@ -47838,12 +48043,20 @@
       <c r="I64">
         <v>480.27</v>
       </c>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
+      <c r="L64" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M64" s="4">
+        <v>2.0243941639119702</v>
+      </c>
       <c r="N64" s="4"/>
       <c r="O64" s="3"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
+      <c r="S64" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T64" s="4">
+        <v>2.0243941639119702</v>
+      </c>
       <c r="U64" s="4"/>
       <c r="V64" s="3"/>
     </row>
@@ -48562,11 +48775,19 @@
         <v>542.1</v>
       </c>
       <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
+      <c r="M89" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
+      <c r="T89" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U89" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="90" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B90">
@@ -48593,12 +48814,24 @@
       <c r="I90">
         <v>517.48</v>
       </c>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
-      <c r="S90" s="3"/>
-      <c r="T90" s="3"/>
-      <c r="U90" s="3"/>
+      <c r="L90" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M90" s="3">
+        <v>516.67899999999997</v>
+      </c>
+      <c r="N90" s="3">
+        <v>520.07766666666669</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T90" s="3">
+        <v>506.18566666666658</v>
+      </c>
+      <c r="U90" s="3">
+        <v>520.07766666666669</v>
+      </c>
     </row>
     <row r="91" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B91">
@@ -48625,12 +48858,24 @@
       <c r="I91">
         <v>473.21</v>
       </c>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="S91" s="3"/>
-      <c r="T91" s="3"/>
-      <c r="U91" s="3"/>
+      <c r="L91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M91" s="3">
+        <v>347.21638862068949</v>
+      </c>
+      <c r="N91" s="3">
+        <v>193.7549357471263</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T91" s="3">
+        <v>746.71431505747137</v>
+      </c>
+      <c r="U91" s="3">
+        <v>193.7549357471263</v>
+      </c>
     </row>
     <row r="92" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B92">
@@ -48657,12 +48902,24 @@
       <c r="I92">
         <v>525.01</v>
       </c>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
-      <c r="S92" s="3"/>
-      <c r="T92" s="3"/>
-      <c r="U92" s="3"/>
+      <c r="L92" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M92" s="3">
+        <v>30</v>
+      </c>
+      <c r="N92" s="3">
+        <v>30</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T92" s="3">
+        <v>30</v>
+      </c>
+      <c r="U92" s="3">
+        <v>30</v>
+      </c>
     </row>
     <row r="93" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B93">
@@ -48689,11 +48946,19 @@
       <c r="I93">
         <v>479.32</v>
       </c>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
+      <c r="L93" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
       <c r="N93" s="3"/>
-      <c r="S93" s="3"/>
-      <c r="T93" s="3"/>
+      <c r="S93" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
       <c r="U93" s="3"/>
     </row>
     <row r="94" spans="2:21" x14ac:dyDescent="0.35">
@@ -48721,11 +48986,19 @@
       <c r="I94">
         <v>514.01</v>
       </c>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
+      <c r="L94" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M94" s="3">
+        <v>54</v>
+      </c>
       <c r="N94" s="3"/>
-      <c r="S94" s="3"/>
-      <c r="T94" s="3"/>
+      <c r="S94" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T94" s="3">
+        <v>43</v>
+      </c>
       <c r="U94" s="3"/>
     </row>
     <row r="95" spans="2:21" x14ac:dyDescent="0.35">
@@ -48753,11 +49026,19 @@
       <c r="I95">
         <v>512.95000000000005</v>
       </c>
-      <c r="L95" s="3"/>
-      <c r="M95" s="6"/>
+      <c r="L95" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M95" s="6">
+        <v>-0.80035392122690563</v>
+      </c>
       <c r="N95" s="3"/>
-      <c r="S95" s="3"/>
-      <c r="T95" s="6"/>
+      <c r="S95" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T95" s="6">
+        <v>-2.4811504627222534</v>
+      </c>
       <c r="U95" s="3"/>
     </row>
     <row r="96" spans="2:21" x14ac:dyDescent="0.35">
@@ -48785,11 +49066,19 @@
       <c r="I96">
         <v>477.98</v>
       </c>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
+      <c r="L96" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0.21350647179168725</v>
+      </c>
       <c r="N96" s="3"/>
-      <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
+      <c r="S96" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T96" s="3">
+        <v>8.5422088202594185E-3</v>
+      </c>
       <c r="U96" s="3"/>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.35">
@@ -48817,11 +49106,19 @@
       <c r="I97">
         <v>494.04</v>
       </c>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
+      <c r="L97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M97" s="3">
+        <v>1.6735649063521589</v>
+      </c>
       <c r="N97" s="3"/>
-      <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
+      <c r="S97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T97" s="3">
+        <v>1.6810707032025196</v>
+      </c>
       <c r="U97" s="3"/>
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.35">
@@ -48849,11 +49146,19 @@
       <c r="I98">
         <v>490.63</v>
       </c>
-      <c r="L98" s="3"/>
-      <c r="M98" s="6"/>
+      <c r="L98" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M98" s="6">
+        <v>0.42701294358337449</v>
+      </c>
       <c r="N98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="6"/>
+      <c r="S98" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T98" s="6">
+        <v>1.7084417640518837E-2</v>
+      </c>
       <c r="U98" s="3"/>
     </row>
     <row r="99" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48881,11 +49186,19 @@
       <c r="I99">
         <v>494.43</v>
       </c>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
+      <c r="L99" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M99" s="4">
+        <v>2.0048792881880577</v>
+      </c>
       <c r="N99" s="4"/>
-      <c r="S99" s="4"/>
-      <c r="T99" s="4"/>
+      <c r="S99" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T99" s="4">
+        <v>2.0166921992278248</v>
+      </c>
       <c r="U99" s="4"/>
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.35">
@@ -59287,10 +59600,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB09A27-0144-4906-BC0E-BB2A5E88B564}">
-  <dimension ref="E1:N22"/>
+  <dimension ref="E1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -59302,6 +59615,7 @@
     <col min="9" max="9" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:14" x14ac:dyDescent="0.35">
@@ -59343,11 +59657,11 @@
       <c r="J3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="18"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -59370,8 +59684,12 @@
       <c r="K4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="L4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="5:14" x14ac:dyDescent="0.35">
@@ -59379,31 +59697,37 @@
         <v>35</v>
       </c>
       <c r="F5" s="17">
-        <f>Rosenbrock!Z26</f>
+        <f>Rosenbrock!AB26</f>
         <v>-7.1026030121160133</v>
       </c>
       <c r="G5" s="9">
-        <f>Rosenbrock!Z29</f>
+        <f>Rosenbrock!AB29</f>
         <v>1.1811260768376878E-8</v>
       </c>
       <c r="H5" s="17">
-        <f>Ackley!Z25</f>
+        <f>Ackley!AB25</f>
         <v>-6.9165290253340732</v>
       </c>
       <c r="I5" s="9">
-        <f>Ackley!Z28</f>
+        <f>Ackley!AB28</f>
         <v>1.0940394403389009E-8</v>
       </c>
       <c r="J5" s="17">
-        <f>Rastrigin!Z25</f>
+        <f>Rastrigin!AB25</f>
         <v>-4.1085531734819476</v>
       </c>
       <c r="K5" s="11">
-        <f>Rastrigin!Z28</f>
+        <f>Rastrigin!AB28</f>
         <v>2.1935020866038814E-4</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="L5" s="17">
+        <f>Schaffer!AB25</f>
+        <v>-5.4702463408883713</v>
+      </c>
+      <c r="M5" s="11">
+        <f>Schaffer!AB28</f>
+        <v>5.0561676374521837E-6</v>
+      </c>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -59411,31 +59735,37 @@
         <v>36</v>
       </c>
       <c r="F6" s="14">
-        <f>Rosenbrock!S26</f>
+        <f>Rosenbrock!U26</f>
         <v>-12.235773038619984</v>
       </c>
       <c r="G6" s="15">
-        <f>Rosenbrock!S29</f>
+        <f>Rosenbrock!U29</f>
         <v>6.291424650097399E-15</v>
       </c>
       <c r="H6" s="14">
-        <f>Ackley!S25</f>
+        <f>Ackley!U25</f>
         <v>-7.2654321291349859</v>
       </c>
       <c r="I6" s="15">
-        <f>Ackley!S28</f>
+        <f>Ackley!U28</f>
         <v>5.3217180234664199E-9</v>
       </c>
       <c r="J6" s="14">
-        <f>Rastrigin!S25</f>
+        <f>Rastrigin!U25</f>
         <v>-5.6555239863410627</v>
       </c>
       <c r="K6" s="16">
-        <f>Rastrigin!S28</f>
+        <f>Rastrigin!U28</f>
         <v>2.0065677321950054E-6</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="14">
+        <f>Schaffer!U25</f>
+        <v>-5.2403657617694908</v>
+      </c>
+      <c r="M6" s="16">
+        <f>Schaffer!U28</f>
+        <v>8.374505205825438E-6</v>
+      </c>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="5:14" x14ac:dyDescent="0.35">
@@ -59466,8 +59796,14 @@
         <f>Rastrigin!T63</f>
         <v>1.1775029170792242E-3</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="L7" s="17">
+        <f>Schaffer!T60</f>
+        <v>-4.6462627964594239</v>
+      </c>
+      <c r="M7" s="11">
+        <f>Schaffer!T63</f>
+        <v>3.9822963152836165E-5</v>
+      </c>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -59498,8 +59834,14 @@
         <f>Rastrigin!M63</f>
         <v>1.244363293984845E-3</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="L8" s="14">
+        <f>Schaffer!M60</f>
+        <v>-3.3926996999482273</v>
+      </c>
+      <c r="M8" s="16">
+        <f>Schaffer!M63</f>
+        <v>1.6294474334135056E-3</v>
+      </c>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="5:14" x14ac:dyDescent="0.35">
@@ -59530,8 +59872,14 @@
         <f>Rastrigin!T98</f>
         <v>8.0078390427950355E-2</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="L9" s="12">
+        <f>Schaffer!T95</f>
+        <v>-2.4811504627222534</v>
+      </c>
+      <c r="M9" s="13">
+        <f>Schaffer!T98</f>
+        <v>1.7084417640518837E-2</v>
+      </c>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -59562,8 +59910,14 @@
         <f>Rastrigin!M98</f>
         <v>3.362152675729279E-2</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="L10" s="14">
+        <f>Schaffer!M95</f>
+        <v>-0.80035392122690563</v>
+      </c>
+      <c r="M10" s="16">
+        <f>Schaffer!M98</f>
+        <v>0.42701294358337449</v>
+      </c>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="5:14" x14ac:dyDescent="0.35">
@@ -59580,8 +59934,6 @@
     </row>
     <row r="12" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
     <row r="14" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -59603,6 +59955,10 @@
       <c r="K15" s="18" t="s">
         <v>45</v>
       </c>
+      <c r="L15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E16" s="12"/>
@@ -59624,8 +59980,14 @@
       <c r="K16" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="L16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E17" s="17" t="s">
         <v>35</v>
       </c>
@@ -59646,15 +60008,23 @@
         <v>***</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" ref="J17:J22" si="4">ROUND(J5, 2)</f>
+        <f t="shared" ref="J17:L22" si="4">ROUND(J5, 2)</f>
         <v>-4.1100000000000003</v>
       </c>
       <c r="K17" s="11" t="str">
-        <f t="shared" ref="K17:K22" si="5">IF(K5&lt;0.001,"***",IF(K5&lt;0.01,"**",IF(K5&lt;0.05,"*")))</f>
+        <f t="shared" ref="K17:M22" si="5">IF(K5&lt;0.001,"***",IF(K5&lt;0.01,"**",IF(K5&lt;0.05,"*")))</f>
         <v>***</v>
       </c>
-    </row>
-    <row r="18" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L17" s="9">
+        <f t="shared" si="4"/>
+        <v>-5.47</v>
+      </c>
+      <c r="M17" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E18" s="12" t="s">
         <v>36</v>
       </c>
@@ -59682,8 +60052,16 @@
         <f t="shared" si="5"/>
         <v>***</v>
       </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="L18" s="7">
+        <f t="shared" si="4"/>
+        <v>-5.24</v>
+      </c>
+      <c r="M18" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E19" s="17" t="s">
         <v>37</v>
       </c>
@@ -59711,8 +60089,16 @@
         <f t="shared" si="5"/>
         <v>**</v>
       </c>
-    </row>
-    <row r="20" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L19" s="9">
+        <f t="shared" si="4"/>
+        <v>-4.6500000000000004</v>
+      </c>
+      <c r="M19" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E20" s="14" t="s">
         <v>38</v>
       </c>
@@ -59740,8 +60126,16 @@
         <f t="shared" si="5"/>
         <v>**</v>
       </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="L20" s="15">
+        <f t="shared" si="4"/>
+        <v>-3.39</v>
+      </c>
+      <c r="M20" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E21" s="12" t="s">
         <v>39</v>
       </c>
@@ -59769,8 +60163,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L21" s="7">
+        <f t="shared" si="4"/>
+        <v>-2.48</v>
+      </c>
+      <c r="M21" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E22" s="14" t="s">
         <v>40</v>
       </c>
@@ -59798,9 +60200,356 @@
         <f t="shared" si="5"/>
         <v>*</v>
       </c>
+      <c r="L22" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.8</v>
+      </c>
+      <c r="M22" s="16" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="F26" s="54">
+        <v>4</v>
+      </c>
+      <c r="G26" s="54">
+        <v>8</v>
+      </c>
+      <c r="H26" s="54">
+        <v>16</v>
+      </c>
+      <c r="I26" s="54">
+        <v>24</v>
+      </c>
+      <c r="J26" s="54">
+        <v>32</v>
+      </c>
+      <c r="K26" s="54">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <v>86.92</v>
+      </c>
+      <c r="G27">
+        <v>87.75</v>
+      </c>
+      <c r="H27" s="1">
+        <v>84.18</v>
+      </c>
+      <c r="I27">
+        <v>89.32</v>
+      </c>
+      <c r="J27">
+        <v>86.12</v>
+      </c>
+      <c r="K27">
+        <v>89.13</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <v>9.32</v>
+      </c>
+      <c r="G28">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="H28" s="1">
+        <v>9.17</v>
+      </c>
+      <c r="I28">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="J28">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="K28">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <v>9.32</v>
+      </c>
+      <c r="G29">
+        <v>9.41</v>
+      </c>
+      <c r="H29" s="1">
+        <v>9.11</v>
+      </c>
+      <c r="I29">
+        <v>9.5</v>
+      </c>
+      <c r="J29">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="K29">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <v>8.99</v>
+      </c>
+      <c r="G30">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="H30" s="1">
+        <v>8.83</v>
+      </c>
+      <c r="I30">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="J30">
+        <v>9.01</v>
+      </c>
+      <c r="K30">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <v>88.7</v>
+      </c>
+      <c r="G31">
+        <v>88.62</v>
+      </c>
+      <c r="H31" s="1">
+        <v>89.62</v>
+      </c>
+      <c r="I31">
+        <v>88.24</v>
+      </c>
+      <c r="J31">
+        <v>89.1</v>
+      </c>
+      <c r="K31">
+        <v>88.36</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="G32">
+        <v>0.95609999999999995</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.93140000000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="J32">
+        <v>0.95269999999999999</v>
+      </c>
+      <c r="K32">
+        <v>0.96819999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <v>2.74</v>
+      </c>
+      <c r="G33">
+        <v>2.66</v>
+      </c>
+      <c r="H33">
+        <v>3.18</v>
+      </c>
+      <c r="I33">
+        <v>2.58</v>
+      </c>
+      <c r="J33">
+        <v>3.13</v>
+      </c>
+      <c r="K33" s="1">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <v>6.5305223769944899E-3</v>
+      </c>
+      <c r="G34">
+        <v>8.1930490131343504E-3</v>
+      </c>
+      <c r="H34">
+        <v>1.60369664916701E-3</v>
+      </c>
+      <c r="I34">
+        <v>1.0376853938250699E-2</v>
+      </c>
+      <c r="J34">
+        <v>1.9139913758688099E-3</v>
+      </c>
+      <c r="K34">
+        <v>7.6212009143717101E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <v>2.72</v>
+      </c>
+      <c r="G35">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3.89</v>
+      </c>
+      <c r="I35">
+        <v>2.27</v>
+      </c>
+      <c r="J35">
+        <v>2.19</v>
+      </c>
+      <c r="K35">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="36" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <v>6.7879236430252298E-3</v>
+      </c>
+      <c r="G36">
+        <v>1.55836891798714E-2</v>
+      </c>
+      <c r="H36">
+        <v>1.16848001329974E-4</v>
+      </c>
+      <c r="I36">
+        <v>2.36149796508121E-2</v>
+      </c>
+      <c r="J36">
+        <v>2.9144684796633302E-2</v>
+      </c>
+      <c r="K36">
+        <v>0.10151727174955601</v>
+      </c>
+    </row>
+    <row r="37" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <v>1.86</v>
+      </c>
+      <c r="G37">
+        <v>1.71</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="I37">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J37">
+        <v>2.41</v>
+      </c>
+      <c r="K37">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="38" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <v>6.3022601977501799E-2</v>
+      </c>
+      <c r="G38">
+        <v>8.7732661313856E-2</v>
+      </c>
+      <c r="H38">
+        <v>1.39399394068125E-3</v>
+      </c>
+      <c r="I38">
+        <v>0.275317978419027</v>
+      </c>
+      <c r="J38">
+        <v>1.6306612979068599E-2</v>
+      </c>
+      <c r="K38">
+        <v>0.229212653279359</v>
+      </c>
+    </row>
+    <row r="40" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F40" t="str">
+        <f>IF(F34&lt;0.001,"***",IF(F34&lt;0.01,"**",IF(F34&lt;0.05,"*")))</f>
+        <v>**</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" ref="G40:K40" si="6">IF(G34&lt;0.001,"***",IF(G34&lt;0.01,"**",IF(G34&lt;0.05,"*")))</f>
+        <v>**</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="6"/>
+        <v>**</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="6"/>
+        <v>**</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="6"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="41" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F41" t="b">
+        <f t="shared" ref="F41:K41" si="7">IF(F35&lt;0.001,"***",IF(F35&lt;0.01,"**",IF(F35&lt;0.05,"*")))</f>
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F42" t="str">
+        <f t="shared" ref="F42:K42" si="8">IF(F36&lt;0.001,"***",IF(F36&lt;0.01,"**",IF(F36&lt;0.05,"*")))</f>
+        <v>**</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="8"/>
+        <v>***</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="K42" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -60467,27 +61216,27 @@
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="29">
-        <f>D14+D16+D18</f>
+        <f t="shared" ref="D20:I20" si="6">D14+D16+D18</f>
         <v>12.7</v>
       </c>
       <c r="E20" s="29">
-        <f>E14+E16+E18</f>
+        <f t="shared" si="6"/>
         <v>11.97</v>
       </c>
       <c r="F20" s="29">
-        <f>F14+F16+F18</f>
+        <f t="shared" si="6"/>
         <v>10.18</v>
       </c>
       <c r="G20" s="29">
-        <f>G14+G16+G18</f>
+        <f t="shared" si="6"/>
         <v>12.44</v>
       </c>
       <c r="H20" s="30">
-        <f>H14+H16+H18</f>
+        <f t="shared" si="6"/>
         <v>13.059999999999999</v>
       </c>
       <c r="I20" s="31">
-        <f>I14+I16+I18</f>
+        <f t="shared" si="6"/>
         <v>12.079999999999998</v>
       </c>
       <c r="K20" s="22"/>
@@ -60500,23 +61249,23 @@
         <v>***</v>
       </c>
       <c r="O20" s="15" t="str">
-        <f t="shared" ref="O20" si="6">IF(E19&lt;0.001,"***",IF(E19&lt;0.01,"**",IF(E19&lt;0.05,"*")))</f>
+        <f t="shared" ref="O20" si="7">IF(E19&lt;0.001,"***",IF(E19&lt;0.01,"**",IF(E19&lt;0.05,"*")))</f>
         <v>***</v>
       </c>
       <c r="P20" s="15" t="str">
-        <f t="shared" ref="P20" si="7">IF(F19&lt;0.001,"***",IF(F19&lt;0.01,"**",IF(F19&lt;0.05,"*")))</f>
+        <f t="shared" ref="P20" si="8">IF(F19&lt;0.001,"***",IF(F19&lt;0.01,"**",IF(F19&lt;0.05,"*")))</f>
         <v>**</v>
       </c>
       <c r="Q20" s="15" t="str">
-        <f t="shared" ref="Q20" si="8">IF(G19&lt;0.001,"***",IF(G19&lt;0.01,"**",IF(G19&lt;0.05,"*")))</f>
+        <f t="shared" ref="Q20" si="9">IF(G19&lt;0.001,"***",IF(G19&lt;0.01,"**",IF(G19&lt;0.05,"*")))</f>
         <v>***</v>
       </c>
       <c r="R20" s="15" t="str">
-        <f t="shared" ref="R20" si="9">IF(H19&lt;0.001,"***",IF(H19&lt;0.01,"**",IF(H19&lt;0.05,"*")))</f>
+        <f t="shared" ref="R20" si="10">IF(H19&lt;0.001,"***",IF(H19&lt;0.01,"**",IF(H19&lt;0.05,"*")))</f>
         <v>***</v>
       </c>
       <c r="S20" s="16" t="str">
-        <f t="shared" ref="S20" si="10">IF(I19&lt;0.001,"***",IF(I19&lt;0.01,"**",IF(I19&lt;0.05,"*")))</f>
+        <f t="shared" ref="S20" si="11">IF(I19&lt;0.001,"***",IF(I19&lt;0.01,"**",IF(I19&lt;0.05,"*")))</f>
         <v>***</v>
       </c>
     </row>
@@ -60898,27 +61647,27 @@
         <v>75</v>
       </c>
       <c r="N28" s="7" t="str">
-        <f>IF(D28&lt;0.001,"***",IF(D28&lt;0.01,"**",IF(D28&lt;0.05,"*")))</f>
+        <f t="shared" ref="N28:S28" si="12">IF(D28&lt;0.001,"***",IF(D28&lt;0.01,"**",IF(D28&lt;0.05,"*")))</f>
         <v>*</v>
       </c>
       <c r="O28" s="7" t="b">
-        <f>IF(E28&lt;0.001,"***",IF(E28&lt;0.01,"**",IF(E28&lt;0.05,"*")))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P28" s="7" t="str">
-        <f>IF(F28&lt;0.001,"***",IF(F28&lt;0.01,"**",IF(F28&lt;0.05,"*")))</f>
+        <f t="shared" si="12"/>
         <v>*</v>
       </c>
       <c r="Q28" s="7" t="b">
-        <f>IF(G28&lt;0.001,"***",IF(G28&lt;0.01,"**",IF(G28&lt;0.05,"*")))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R28" s="7" t="str">
-        <f>IF(H28&lt;0.001,"***",IF(H28&lt;0.01,"**",IF(H28&lt;0.05,"*")))</f>
+        <f t="shared" si="12"/>
         <v>*</v>
       </c>
       <c r="S28" s="13" t="str">
-        <f>IF(I28&lt;0.001,"***",IF(I28&lt;0.01,"**",IF(I28&lt;0.05,"*")))</f>
+        <f t="shared" si="12"/>
         <v>*</v>
       </c>
     </row>
@@ -61004,27 +61753,27 @@
         <v>75</v>
       </c>
       <c r="N30" s="12" t="str">
-        <f>IF(D30&lt;0.001,"***",IF(D30&lt;0.01,"**",IF(D30&lt;0.05,"*")))</f>
+        <f t="shared" ref="N30:S30" si="13">IF(D30&lt;0.001,"***",IF(D30&lt;0.01,"**",IF(D30&lt;0.05,"*")))</f>
         <v>**</v>
       </c>
       <c r="O30" s="7" t="str">
-        <f>IF(E30&lt;0.001,"***",IF(E30&lt;0.01,"**",IF(E30&lt;0.05,"*")))</f>
+        <f t="shared" si="13"/>
         <v>*</v>
       </c>
       <c r="P30" s="7" t="str">
-        <f>IF(F30&lt;0.001,"***",IF(F30&lt;0.01,"**",IF(F30&lt;0.05,"*")))</f>
+        <f t="shared" si="13"/>
         <v>*</v>
       </c>
       <c r="Q30" s="7" t="str">
-        <f>IF(G30&lt;0.001,"***",IF(G30&lt;0.01,"**",IF(G30&lt;0.05,"*")))</f>
+        <f t="shared" si="13"/>
         <v>*</v>
       </c>
       <c r="R30" s="7" t="str">
-        <f>IF(H30&lt;0.001,"***",IF(H30&lt;0.01,"**",IF(H30&lt;0.05,"*")))</f>
+        <f t="shared" si="13"/>
         <v>**</v>
       </c>
       <c r="S30" s="13" t="str">
-        <f>IF(I30&lt;0.001,"***",IF(I30&lt;0.01,"**",IF(I30&lt;0.05,"*")))</f>
+        <f t="shared" si="13"/>
         <v>*</v>
       </c>
     </row>
@@ -61110,27 +61859,27 @@
         <v>75</v>
       </c>
       <c r="N32" s="14" t="str">
-        <f>IF(D32&lt;0.001,"***",IF(D32&lt;0.01,"**",IF(D32&lt;0.05,"*")))</f>
+        <f t="shared" ref="N32:S32" si="14">IF(D32&lt;0.001,"***",IF(D32&lt;0.01,"**",IF(D32&lt;0.05,"*")))</f>
         <v>**</v>
       </c>
       <c r="O32" s="15" t="str">
-        <f>IF(E32&lt;0.001,"***",IF(E32&lt;0.01,"**",IF(E32&lt;0.05,"*")))</f>
+        <f t="shared" si="14"/>
         <v>**</v>
       </c>
       <c r="P32" s="15" t="str">
-        <f>IF(F32&lt;0.001,"***",IF(F32&lt;0.01,"**",IF(F32&lt;0.05,"*")))</f>
+        <f t="shared" si="14"/>
         <v>***</v>
       </c>
       <c r="Q32" s="15" t="str">
-        <f>IF(G32&lt;0.001,"***",IF(G32&lt;0.01,"**",IF(G32&lt;0.05,"*")))</f>
+        <f t="shared" si="14"/>
         <v>*</v>
       </c>
       <c r="R32" s="15" t="b">
-        <f>IF(H32&lt;0.001,"***",IF(H32&lt;0.01,"**",IF(H32&lt;0.05,"*")))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S32" s="16" t="b">
-        <f>IF(I32&lt;0.001,"***",IF(I32&lt;0.01,"**",IF(I32&lt;0.05,"*")))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -61216,27 +61965,27 @@
         <v>75</v>
       </c>
       <c r="N34" s="14" t="str">
-        <f>IF(D34&lt;0.001,"***",IF(D34&lt;0.01,"**",IF(D34&lt;0.05,"*")))</f>
+        <f t="shared" ref="N34:S34" si="15">IF(D34&lt;0.001,"***",IF(D34&lt;0.01,"**",IF(D34&lt;0.05,"*")))</f>
         <v>***</v>
       </c>
       <c r="O34" s="15" t="str">
-        <f>IF(E34&lt;0.001,"***",IF(E34&lt;0.01,"**",IF(E34&lt;0.05,"*")))</f>
+        <f t="shared" si="15"/>
         <v>***</v>
       </c>
       <c r="P34" s="15" t="str">
-        <f>IF(F34&lt;0.001,"***",IF(F34&lt;0.01,"**",IF(F34&lt;0.05,"*")))</f>
+        <f t="shared" si="15"/>
         <v>***</v>
       </c>
       <c r="Q34" s="15" t="str">
-        <f>IF(G34&lt;0.001,"***",IF(G34&lt;0.01,"**",IF(G34&lt;0.05,"*")))</f>
+        <f t="shared" si="15"/>
         <v>***</v>
       </c>
       <c r="R34" s="15" t="str">
-        <f>IF(H34&lt;0.001,"***",IF(H34&lt;0.01,"**",IF(H34&lt;0.05,"*")))</f>
+        <f t="shared" si="15"/>
         <v>**</v>
       </c>
       <c r="S34" s="16" t="str">
-        <f>IF(I34&lt;0.001,"***",IF(I34&lt;0.01,"**",IF(I34&lt;0.05,"*")))</f>
+        <f t="shared" si="15"/>
         <v>***</v>
       </c>
     </row>
@@ -61322,27 +62071,27 @@
         <v>75</v>
       </c>
       <c r="N36" s="14" t="b">
-        <f>IF(D36&lt;0.001,"***",IF(D36&lt;0.01,"**",IF(D36&lt;0.05,"*")))</f>
+        <f t="shared" ref="N36:S36" si="16">IF(D36&lt;0.001,"***",IF(D36&lt;0.01,"**",IF(D36&lt;0.05,"*")))</f>
         <v>0</v>
       </c>
       <c r="O36" s="15" t="str">
-        <f>IF(E36&lt;0.001,"***",IF(E36&lt;0.01,"**",IF(E36&lt;0.05,"*")))</f>
+        <f t="shared" si="16"/>
         <v>*</v>
       </c>
       <c r="P36" s="15" t="b">
-        <f>IF(F36&lt;0.001,"***",IF(F36&lt;0.01,"**",IF(F36&lt;0.05,"*")))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q36" s="15" t="b">
-        <f>IF(G36&lt;0.001,"***",IF(G36&lt;0.01,"**",IF(G36&lt;0.05,"*")))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R36" s="15" t="b">
-        <f>IF(H36&lt;0.001,"***",IF(H36&lt;0.01,"**",IF(H36&lt;0.05,"*")))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S36" s="16" t="b">
-        <f>IF(I36&lt;0.001,"***",IF(I36&lt;0.01,"**",IF(I36&lt;0.05,"*")))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -61353,27 +62102,27 @@
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="29">
-        <f>D27+D29+D31+D33+D35</f>
+        <f t="shared" ref="D37:I37" si="17">D27+D29+D31+D33+D35</f>
         <v>9.2200000000000006</v>
       </c>
       <c r="E37" s="30">
-        <f>E27+E29+E31+E33+E35</f>
+        <f t="shared" si="17"/>
         <v>10.09</v>
       </c>
       <c r="F37" s="29">
-        <f>F27+F29+F31+F33+F35</f>
+        <f t="shared" si="17"/>
         <v>9.5</v>
       </c>
       <c r="G37" s="29">
-        <f>G27+G29+G31+G33+G35</f>
+        <f t="shared" si="17"/>
         <v>9.06</v>
       </c>
       <c r="H37" s="29">
-        <f>H27+H29+H31+H33+H35</f>
+        <f t="shared" si="17"/>
         <v>7.01</v>
       </c>
       <c r="I37" s="31">
-        <f>I27+I29+I31+I33+I35</f>
+        <f t="shared" si="17"/>
         <v>7.17</v>
       </c>
     </row>
@@ -61393,8 +62142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CEA5EE-3BD5-4281-8B13-E05FA0E89401}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -63178,7 +63927,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/models/NarxModelSearch/benchmarksIslandsVsRS.xlsx
+++ b/models/NarxModelSearch/benchmarksIslandsVsRS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madks\Documents\GitHub\Ozone-Narx-DNN\models\NarxModelSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04061CB9-FE3F-4C64-9165-E92E0AEA0A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C919F68-0D22-4363-B8DF-01EF1723F516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15370" tabRatio="440" activeTab="4" xr2:uid="{61FBCCFF-D26E-44A9-A7DF-005C2E7C4778}"/>
+    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18720" tabRatio="440" activeTab="4" xr2:uid="{61FBCCFF-D26E-44A9-A7DF-005C2E7C4778}"/>
   </bookViews>
   <sheets>
     <sheet name="Rosenbrock" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="145">
   <si>
     <t>ackley</t>
   </si>
@@ -490,6 +490,12 @@
   </si>
   <si>
     <t>Execution time (non-communicating)</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Lines that can be reduced</t>
   </si>
 </sst>
 </file>
@@ -59600,10 +59606,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB09A27-0144-4906-BC0E-BB2A5E88B564}">
-  <dimension ref="E1:N42"/>
+  <dimension ref="D1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -60349,7 +60355,7 @@
         <v>0.96819999999999995</v>
       </c>
     </row>
-    <row r="33" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F33">
         <v>2.74</v>
       </c>
@@ -60369,7 +60375,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="34" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F34">
         <v>6.5305223769944899E-3</v>
       </c>
@@ -60389,7 +60395,7 @@
         <v>7.6212009143717101E-4</v>
       </c>
     </row>
-    <row r="35" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F35">
         <v>2.72</v>
       </c>
@@ -60409,7 +60415,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="36" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F36">
         <v>6.7879236430252298E-3</v>
       </c>
@@ -60429,7 +60435,7 @@
         <v>0.10151727174955601</v>
       </c>
     </row>
-    <row r="37" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F37">
         <v>1.86</v>
       </c>
@@ -60449,7 +60455,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="38" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F38">
         <v>6.3022601977501799E-2</v>
       </c>
@@ -60469,82 +60475,239 @@
         <v>0.229212653279359</v>
       </c>
     </row>
-    <row r="40" spans="6:11" x14ac:dyDescent="0.35">
-      <c r="F40" t="str">
-        <f>IF(F34&lt;0.001,"***",IF(F34&lt;0.01,"**",IF(F34&lt;0.05,"*")))</f>
+    <row r="39" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F40" s="17">
+        <f>ROUND(F33, 2)</f>
+        <v>2.74</v>
+      </c>
+      <c r="G40" s="17">
+        <f t="shared" ref="G40:K40" si="6">ROUND(G33, 2)</f>
+        <v>2.66</v>
+      </c>
+      <c r="H40" s="17">
+        <f t="shared" si="6"/>
+        <v>3.18</v>
+      </c>
+      <c r="I40" s="17">
+        <f t="shared" si="6"/>
+        <v>2.58</v>
+      </c>
+      <c r="J40" s="17">
+        <f t="shared" si="6"/>
+        <v>3.13</v>
+      </c>
+      <c r="K40" s="17">
+        <f t="shared" si="6"/>
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F41" s="12" t="str">
+        <f t="shared" ref="F41:K41" si="7">IF(F34&lt;0.001,"***",IF(F34&lt;0.01,"**",IF(F34&lt;0.05,"*")))</f>
         <v>**</v>
       </c>
-      <c r="G40" t="str">
-        <f t="shared" ref="G40:K40" si="6">IF(G34&lt;0.001,"***",IF(G34&lt;0.01,"**",IF(G34&lt;0.05,"*")))</f>
+      <c r="G41" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>**</v>
       </c>
-      <c r="H40" t="str">
-        <f t="shared" si="6"/>
+      <c r="H41" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>**</v>
       </c>
-      <c r="I40" t="str">
-        <f t="shared" si="6"/>
+      <c r="I41" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>*</v>
       </c>
-      <c r="J40" t="str">
-        <f t="shared" si="6"/>
+      <c r="J41" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>**</v>
       </c>
-      <c r="K40" t="str">
-        <f t="shared" si="6"/>
+      <c r="K41" s="13" t="str">
+        <f t="shared" si="7"/>
         <v>***</v>
       </c>
     </row>
-    <row r="41" spans="6:11" x14ac:dyDescent="0.35">
-      <c r="F41" t="b">
-        <f t="shared" ref="F41:K41" si="7">IF(F35&lt;0.001,"***",IF(F35&lt;0.01,"**",IF(F35&lt;0.05,"*")))</f>
-        <v>0</v>
-      </c>
-      <c r="G41" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H41" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I41" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J41" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K41" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="6:11" x14ac:dyDescent="0.35">
-      <c r="F42" t="str">
-        <f t="shared" ref="F42:K42" si="8">IF(F36&lt;0.001,"***",IF(F36&lt;0.01,"**",IF(F36&lt;0.05,"*")))</f>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F42" s="17">
+        <f>ROUND(F35, 2)</f>
+        <v>2.72</v>
+      </c>
+      <c r="G42" s="17">
+        <f t="shared" ref="G42:K42" si="8">ROUND(G35, 2)</f>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H42" s="17">
+        <f t="shared" si="8"/>
+        <v>3.89</v>
+      </c>
+      <c r="I42" s="17">
+        <f t="shared" si="8"/>
+        <v>2.27</v>
+      </c>
+      <c r="J42" s="17">
+        <f t="shared" si="8"/>
+        <v>2.19</v>
+      </c>
+      <c r="K42" s="17">
+        <f t="shared" si="8"/>
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F43" s="12" t="str">
+        <f>IF(F36&lt;0.001,"***",IF(F36&lt;0.01,"**",IF(F36&lt;0.05,"*")))</f>
         <v>**</v>
       </c>
-      <c r="G42" t="str">
-        <f t="shared" si="8"/>
+      <c r="G43" s="7" t="str">
+        <f>IF(G36&lt;0.001,"***",IF(G36&lt;0.01,"**",IF(G36&lt;0.05,"*")))</f>
         <v>*</v>
       </c>
-      <c r="H42" t="str">
-        <f t="shared" si="8"/>
+      <c r="H43" s="7" t="str">
+        <f>IF(H36&lt;0.001,"***",IF(H36&lt;0.01,"**",IF(H36&lt;0.05,"*")))</f>
         <v>***</v>
       </c>
-      <c r="I42" t="str">
-        <f t="shared" si="8"/>
+      <c r="I43" s="7" t="str">
+        <f>IF(I36&lt;0.001,"***",IF(I36&lt;0.01,"**",IF(I36&lt;0.05,"*")))</f>
         <v>*</v>
       </c>
-      <c r="J42" t="str">
-        <f t="shared" si="8"/>
+      <c r="J43" s="7" t="str">
+        <f>IF(J36&lt;0.001,"***",IF(J36&lt;0.01,"**",IF(J36&lt;0.05,"*")))</f>
         <v>*</v>
       </c>
-      <c r="K42" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="K43" s="14">
+        <f>ROUND(K36, 2)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F44" s="17">
+        <f>ROUND(F37, 2)</f>
+        <v>1.86</v>
+      </c>
+      <c r="G44" s="17">
+        <f t="shared" ref="G44:K44" si="9">ROUND(G37, 2)</f>
+        <v>1.71</v>
+      </c>
+      <c r="H44" s="17">
+        <f t="shared" si="9"/>
+        <v>3.22</v>
+      </c>
+      <c r="I44" s="17">
+        <f t="shared" si="9"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J44" s="17">
+        <f t="shared" si="9"/>
+        <v>2.41</v>
+      </c>
+      <c r="K44" s="17">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F45" s="14">
+        <f>ROUND(F38, 2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="G45" s="14">
+        <f>ROUND(G38, 2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="H45" s="15" t="str">
+        <f>IF(H38&lt;0.001,"***",IF(H38&lt;0.01,"**",IF(H38&lt;0.05,"*")))</f>
+        <v>**</v>
+      </c>
+      <c r="I45" s="14">
+        <f>ROUND(I38, 2)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J45" s="15" t="str">
+        <f>IF(J38&lt;0.001,"***",IF(J38&lt;0.01,"**",IF(J38&lt;0.05,"*")))</f>
+        <v>*</v>
+      </c>
+      <c r="K45" s="14">
+        <f>ROUND(K38, 2)</f>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D48" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D53">
+        <v>11</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D54">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D55">
+        <v>13</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D56">
+        <v>14</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E57">
+        <f>SUM(E49:E56)</f>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/models/NarxModelSearch/benchmarksIslandsVsRS.xlsx
+++ b/models/NarxModelSearch/benchmarksIslandsVsRS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madks\Documents\GitHub\Ozone-Narx-DNN\models\NarxModelSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C919F68-0D22-4363-B8DF-01EF1723F516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4337454C-8E05-493E-B463-0E135736C37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18720" tabRatio="440" activeTab="4" xr2:uid="{61FBCCFF-D26E-44A9-A7DF-005C2E7C4778}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="440" activeTab="4" xr2:uid="{61FBCCFF-D26E-44A9-A7DF-005C2E7C4778}"/>
   </bookViews>
   <sheets>
     <sheet name="Rosenbrock" sheetId="5" r:id="rId1"/>
@@ -59609,7 +59609,7 @@
   <dimension ref="D1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
